--- a/ShoppingList/food.xlsx
+++ b/ShoppingList/food.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="393">
   <si>
     <t>Product</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Baranina, łopatka</t>
   </si>
   <si>
-    <t>              0</t>
-  </si>
-  <si>
     <t>Baranina, udziec</t>
   </si>
   <si>
@@ -668,9 +665,6 @@
     <t>Piersi bez skóry indycze</t>
   </si>
   <si>
-    <t>     0</t>
-  </si>
-  <si>
     <t>Piersi bez skóry z kurczaka</t>
   </si>
   <si>
@@ -983,9 +977,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>        0</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -1032,9 +1023,6 @@
   </si>
   <si>
     <t>Cukier brązowy</t>
-  </si>
-  <si>
-    <t> 0</t>
   </si>
   <si>
     <t>Fasolka szparagowa cieta paczka</t>
@@ -1338,7 +1326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1364,9 +1352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1721,14 +1706,14 @@
   <dimension ref="A1:K361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="25" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
@@ -1741,35 +1726,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>352</v>
+      <c r="H1" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1777,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1798,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J2" s="8"/>
     </row>
@@ -1807,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1828,7 +1813,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J3" s="8"/>
     </row>
@@ -1837,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1858,7 +1843,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J4" s="6">
         <v>300</v>
@@ -1869,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -1890,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J5" s="6">
         <v>300</v>
@@ -1901,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -1922,7 +1907,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -1931,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -1952,7 +1937,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J7" s="6">
         <v>140</v>
@@ -1963,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
@@ -1984,7 +1969,7 @@
         <v>0.9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J8" s="6">
         <v>140</v>
@@ -1995,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -2016,7 +2001,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J9" s="6">
         <v>240</v>
@@ -2027,7 +2012,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -2048,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J10" s="8"/>
     </row>
@@ -2057,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
@@ -2065,8 +2050,8 @@
       <c r="D11" s="4">
         <v>284</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>318</v>
+      <c r="E11" s="5">
+        <v>0</v>
       </c>
       <c r="F11" s="5">
         <v>15.6</v>
@@ -2077,8 +2062,8 @@
       <c r="H11" s="6">
         <v>50</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>320</v>
+      <c r="I11" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="J11" s="8"/>
     </row>
@@ -2087,16 +2072,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
         <v>232</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>318</v>
+      <c r="E12" s="5">
+        <v>0</v>
       </c>
       <c r="F12" s="5">
         <v>18</v>
@@ -2108,7 +2093,7 @@
         <v>45</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J12" s="8"/>
     </row>
@@ -2117,10 +2102,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D13" s="4">
         <v>28</v>
@@ -2138,7 +2123,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J13" s="6">
         <v>400</v>
@@ -2149,10 +2134,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D14" s="4">
         <v>29</v>
@@ -2169,8 +2154,8 @@
       <c r="H14" s="6">
         <v>5</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>321</v>
+      <c r="I14" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J14" s="6">
         <v>400</v>
@@ -2181,10 +2166,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D15" s="4">
         <v>377</v>
@@ -2201,8 +2186,8 @@
       <c r="H15" s="6">
         <v>7</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>321</v>
+      <c r="I15" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J15" s="6">
         <v>51</v>
@@ -2213,10 +2198,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D16" s="4">
         <v>351</v>
@@ -2233,8 +2218,8 @@
       <c r="H16" s="6">
         <v>8</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>321</v>
+      <c r="I16" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J16" s="6">
         <v>57</v>
@@ -2245,10 +2230,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D17" s="4">
         <v>359</v>
@@ -2265,8 +2250,8 @@
       <c r="H17" s="6">
         <v>6</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>321</v>
+      <c r="I17" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J17" s="6">
         <v>51</v>
@@ -2277,10 +2262,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D18" s="4">
         <v>391</v>
@@ -2297,8 +2282,8 @@
       <c r="H18" s="6">
         <v>7</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>321</v>
+      <c r="I18" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J18" s="6">
         <v>57</v>
@@ -2309,10 +2294,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4">
         <v>17</v>
@@ -2329,8 +2314,8 @@
       <c r="H19" s="6">
         <v>5</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>320</v>
+      <c r="I19" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -2339,10 +2324,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4">
         <v>66</v>
@@ -2360,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J20" s="8"/>
     </row>
@@ -2369,10 +2354,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="4">
         <v>27</v>
@@ -2390,7 +2375,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J21" s="6">
         <v>500</v>
@@ -2401,10 +2386,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4">
         <v>24</v>
@@ -2422,7 +2407,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J22" s="6">
         <v>400</v>
@@ -2433,10 +2418,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4">
         <v>37</v>
@@ -2453,8 +2438,8 @@
       <c r="H23" s="6">
         <v>3</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>320</v>
+      <c r="I23" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J23" s="8"/>
     </row>
@@ -2463,10 +2448,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D24" s="4">
         <v>36</v>
@@ -2483,8 +2468,8 @@
       <c r="H24" s="6">
         <v>3</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>321</v>
+      <c r="I24" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J24" s="6">
         <v>400</v>
@@ -2495,10 +2480,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4">
         <v>46</v>
@@ -2515,8 +2500,8 @@
       <c r="H25" s="6">
         <v>6</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>320</v>
+      <c r="I25" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J25" s="8"/>
     </row>
@@ -2525,10 +2510,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4">
         <v>73</v>
@@ -2545,8 +2530,8 @@
       <c r="H26" s="6">
         <v>5</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>321</v>
+      <c r="I26" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J26" s="6">
         <v>400</v>
@@ -2557,10 +2542,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4">
         <v>155</v>
@@ -2577,8 +2562,8 @@
       <c r="H27" s="6">
         <v>3.5</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>321</v>
+      <c r="I27" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J27" s="6">
         <v>300</v>
@@ -2589,10 +2574,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="4">
         <v>347</v>
@@ -2609,8 +2594,8 @@
       <c r="H28" s="6">
         <v>2</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>321</v>
+      <c r="I28" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J28" s="6">
         <v>500</v>
@@ -2621,10 +2606,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="4">
         <v>258</v>
@@ -2641,8 +2626,8 @@
       <c r="H29" s="6">
         <v>0.5</v>
       </c>
-      <c r="I29" s="13" t="s">
-        <v>321</v>
+      <c r="I29" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J29" s="6">
         <v>80</v>
@@ -2653,10 +2638,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4">
         <v>296</v>
@@ -2673,8 +2658,8 @@
       <c r="H30" s="6">
         <v>0.4</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>321</v>
+      <c r="I30" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J30" s="6">
         <v>60</v>
@@ -2685,10 +2670,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4">
         <v>326</v>
@@ -2705,8 +2690,8 @@
       <c r="H31" s="6">
         <v>0.8</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>321</v>
+      <c r="I31" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J31" s="6">
         <v>80</v>
@@ -2717,10 +2702,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="4">
         <v>272</v>
@@ -2737,8 +2722,8 @@
       <c r="H32" s="6">
         <v>0.6</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>321</v>
+      <c r="I32" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J32" s="6">
         <v>80</v>
@@ -2749,10 +2734,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D33" s="4">
         <v>310</v>
@@ -2769,8 +2754,8 @@
       <c r="H33" s="6">
         <v>1</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>321</v>
+      <c r="I33" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J33" s="6">
         <v>80</v>
@@ -2781,10 +2766,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="4">
         <v>38</v>
@@ -2801,8 +2786,8 @@
       <c r="H34" s="6">
         <v>2</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>320</v>
+      <c r="I34" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J34" s="8"/>
     </row>
@@ -2811,10 +2796,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D35" s="4">
         <v>32</v>
@@ -2831,8 +2816,8 @@
       <c r="H35" s="6">
         <v>4</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>321</v>
+      <c r="I35" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J35" s="6">
         <v>500</v>
@@ -2843,10 +2828,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="4">
         <v>30</v>
@@ -2863,8 +2848,8 @@
       <c r="H36" s="6">
         <v>2</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>320</v>
+      <c r="I36" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J36" s="8"/>
     </row>
@@ -2873,10 +2858,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D37" s="4">
         <v>669</v>
@@ -2893,8 +2878,8 @@
       <c r="H37" s="6">
         <v>10</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>321</v>
+      <c r="I37" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J37" s="6">
         <v>80</v>
@@ -2905,10 +2890,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="4">
         <v>226</v>
@@ -2925,8 +2910,8 @@
       <c r="H38" s="6">
         <v>3</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>321</v>
+      <c r="I38" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J38" s="6">
         <v>400</v>
@@ -2937,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="4">
         <v>246</v>
@@ -2957,8 +2942,8 @@
       <c r="H39" s="6">
         <v>3</v>
       </c>
-      <c r="I39" s="12" t="s">
-        <v>321</v>
+      <c r="I39" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J39" s="6">
         <v>500</v>
@@ -2969,10 +2954,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="4">
         <v>231</v>
@@ -2989,8 +2974,8 @@
       <c r="H40" s="6">
         <v>3.5</v>
       </c>
-      <c r="I40" s="12" t="s">
-        <v>321</v>
+      <c r="I40" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J40" s="6">
         <v>400</v>
@@ -3001,10 +2986,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="4">
         <v>249</v>
@@ -3021,8 +3006,8 @@
       <c r="H41" s="6">
         <v>2.5</v>
       </c>
-      <c r="I41" s="12" t="s">
-        <v>321</v>
+      <c r="I41" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J41" s="6">
         <v>400</v>
@@ -3033,10 +3018,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="4">
         <v>219</v>
@@ -3053,8 +3038,8 @@
       <c r="H42" s="6">
         <v>3.5</v>
       </c>
-      <c r="I42" s="12" t="s">
-        <v>321</v>
+      <c r="I42" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J42" s="6">
         <v>400</v>
@@ -3065,10 +3050,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="4">
         <v>239</v>
@@ -3085,8 +3070,8 @@
       <c r="H43" s="6">
         <v>3.5</v>
       </c>
-      <c r="I43" s="12" t="s">
-        <v>321</v>
+      <c r="I43" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J43" s="6">
         <v>400</v>
@@ -3097,10 +3082,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" s="4">
         <v>245</v>
@@ -3117,8 +3102,8 @@
       <c r="H44" s="6">
         <v>2.5</v>
       </c>
-      <c r="I44" s="12" t="s">
-        <v>321</v>
+      <c r="I44" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J44" s="6">
         <v>400</v>
@@ -3129,10 +3114,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" s="4">
         <v>241</v>
@@ -3149,8 +3134,8 @@
       <c r="H45" s="6">
         <v>2.5</v>
       </c>
-      <c r="I45" s="12" t="s">
-        <v>321</v>
+      <c r="I45" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J45" s="6">
         <v>400</v>
@@ -3161,10 +3146,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D46" s="4">
         <v>253</v>
@@ -3181,8 +3166,8 @@
       <c r="H46" s="6">
         <v>3.5</v>
       </c>
-      <c r="I46" s="12" t="s">
-        <v>321</v>
+      <c r="I46" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J46" s="6">
         <v>400</v>
@@ -3193,10 +3178,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47" s="4">
         <v>237</v>
@@ -3213,8 +3198,8 @@
       <c r="H47" s="6">
         <v>3.5</v>
       </c>
-      <c r="I47" s="12" t="s">
-        <v>321</v>
+      <c r="I47" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J47" s="6">
         <v>400</v>
@@ -3225,10 +3210,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48" s="4">
         <v>223</v>
@@ -3245,8 +3230,8 @@
       <c r="H48" s="6">
         <v>3.5</v>
       </c>
-      <c r="I48" s="12" t="s">
-        <v>321</v>
+      <c r="I48" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J48" s="6">
         <v>400</v>
@@ -3257,10 +3242,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49" s="4">
         <v>234</v>
@@ -3277,8 +3262,8 @@
       <c r="H49" s="6">
         <v>3.5</v>
       </c>
-      <c r="I49" s="12" t="s">
-        <v>321</v>
+      <c r="I49" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J49" s="6">
         <v>400</v>
@@ -3289,10 +3274,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="4">
         <v>244</v>
@@ -3309,8 +3294,8 @@
       <c r="H50" s="6">
         <v>3.5</v>
       </c>
-      <c r="I50" s="12" t="s">
-        <v>321</v>
+      <c r="I50" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J50" s="6">
         <v>400</v>
@@ -3321,10 +3306,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="4">
         <v>225</v>
@@ -3341,8 +3326,8 @@
       <c r="H51" s="6">
         <v>3.5</v>
       </c>
-      <c r="I51" s="12" t="s">
-        <v>321</v>
+      <c r="I51" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J51" s="6">
         <v>400</v>
@@ -3353,10 +3338,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" s="4">
         <v>67</v>
@@ -3373,8 +3358,8 @@
       <c r="H52" s="6">
         <v>2</v>
       </c>
-      <c r="I52" s="12" t="s">
-        <v>320</v>
+      <c r="I52" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J52" s="8"/>
     </row>
@@ -3383,10 +3368,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D53" s="4">
         <v>221</v>
@@ -3404,7 +3389,7 @@
         <v>5</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J53" s="2">
         <v>200</v>
@@ -3415,16 +3400,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" s="4">
         <v>106</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>335</v>
+      <c r="E54" s="5">
+        <v>0</v>
       </c>
       <c r="F54" s="5">
         <v>19.899999999999999</v>
@@ -3436,7 +3421,7 @@
         <v>40</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J54" s="2"/>
     </row>
@@ -3445,16 +3430,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="4">
         <v>108</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>335</v>
+      <c r="E55" s="5">
+        <v>0</v>
       </c>
       <c r="F55" s="5">
         <v>19.899999999999999</v>
@@ -3466,7 +3451,7 @@
         <v>45</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J55" s="8"/>
     </row>
@@ -3475,10 +3460,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D56" s="4">
         <v>42</v>
@@ -3496,7 +3481,7 @@
         <v>4.5</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J56" s="2">
         <v>1000</v>
@@ -3507,10 +3492,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D57" s="4">
         <v>380</v>
@@ -3527,8 +3512,8 @@
       <c r="H57" s="6">
         <v>4</v>
       </c>
-      <c r="I57" s="13" t="s">
-        <v>320</v>
+      <c r="I57" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J57" s="8"/>
     </row>
@@ -3537,10 +3522,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D58" s="4">
         <v>15</v>
@@ -3557,8 +3542,8 @@
       <c r="H58" s="6">
         <v>4</v>
       </c>
-      <c r="I58" s="13" t="s">
-        <v>320</v>
+      <c r="I58" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J58" s="8"/>
     </row>
@@ -3567,10 +3552,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D59" s="4">
         <v>21</v>
@@ -3587,8 +3572,8 @@
       <c r="H59" s="6">
         <v>5</v>
       </c>
-      <c r="I59" s="13" t="s">
-        <v>320</v>
+      <c r="I59" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J59" s="8"/>
     </row>
@@ -3597,10 +3582,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D60" s="4">
         <v>36</v>
@@ -3617,8 +3602,8 @@
       <c r="H60" s="6">
         <v>4</v>
       </c>
-      <c r="I60" s="13" t="s">
-        <v>320</v>
+      <c r="I60" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J60" s="8"/>
     </row>
@@ -3627,10 +3612,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D61" s="4">
         <v>45</v>
@@ -3647,8 +3632,8 @@
       <c r="H61" s="6">
         <v>8</v>
       </c>
-      <c r="I61" s="13" t="s">
-        <v>320</v>
+      <c r="I61" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J61" s="8"/>
     </row>
@@ -3657,10 +3642,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D62" s="4">
         <v>152</v>
@@ -3677,8 +3662,8 @@
       <c r="H62" s="6">
         <v>4</v>
       </c>
-      <c r="I62" s="12" t="s">
-        <v>321</v>
+      <c r="I62" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J62" s="6">
         <v>300</v>
@@ -3689,10 +3674,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D63" s="4">
         <v>598</v>
@@ -3709,8 +3694,8 @@
       <c r="H63" s="6">
         <v>5</v>
       </c>
-      <c r="I63" s="13" t="s">
-        <v>321</v>
+      <c r="I63" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J63" s="6">
         <v>100</v>
@@ -3721,10 +3706,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D64" s="4">
         <v>526</v>
@@ -3741,8 +3726,8 @@
       <c r="H64" s="6">
         <v>5</v>
       </c>
-      <c r="I64" s="13" t="s">
-        <v>321</v>
+      <c r="I64" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J64" s="6">
         <v>100</v>
@@ -3753,10 +3738,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="4">
         <v>549</v>
@@ -3773,8 +3758,8 @@
       <c r="H65" s="6">
         <v>5</v>
       </c>
-      <c r="I65" s="13" t="s">
-        <v>321</v>
+      <c r="I65" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J65" s="6">
         <v>100</v>
@@ -3785,10 +3770,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D66" s="4">
         <v>539</v>
@@ -3805,8 +3790,8 @@
       <c r="H66" s="6">
         <v>5</v>
       </c>
-      <c r="I66" s="12" t="s">
-        <v>321</v>
+      <c r="I66" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J66" s="6">
         <v>101</v>
@@ -3817,10 +3802,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D67" s="4">
         <v>61</v>
@@ -3837,8 +3822,8 @@
       <c r="H67" s="6">
         <v>7</v>
       </c>
-      <c r="I67" s="13" t="s">
-        <v>320</v>
+      <c r="I67" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J67" s="8"/>
     </row>
@@ -3847,10 +3832,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D68" s="4">
         <v>146</v>
@@ -3867,8 +3852,8 @@
       <c r="H68" s="6">
         <v>3</v>
       </c>
-      <c r="I68" s="13" t="s">
-        <v>320</v>
+      <c r="I68" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J68" s="8"/>
     </row>
@@ -3877,10 +3862,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D69" s="4">
         <v>41</v>
@@ -3897,8 +3882,8 @@
       <c r="H69" s="6">
         <v>4</v>
       </c>
-      <c r="I69" s="13" t="s">
-        <v>321</v>
+      <c r="I69" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J69" s="6">
         <v>300</v>
@@ -3909,10 +3894,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" s="4">
         <v>277</v>
@@ -3929,8 +3914,8 @@
       <c r="H70" s="6">
         <v>7</v>
       </c>
-      <c r="I70" s="13" t="s">
-        <v>321</v>
+      <c r="I70" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J70" s="6">
         <v>100</v>
@@ -3941,16 +3926,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D71" s="4">
         <v>78</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>15</v>
+      <c r="E71" s="5">
+        <v>0</v>
       </c>
       <c r="F71" s="5">
         <v>17.7</v>
@@ -3961,8 +3946,8 @@
       <c r="H71" s="6">
         <v>35</v>
       </c>
-      <c r="I71" s="13" t="s">
-        <v>320</v>
+      <c r="I71" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J71" s="8"/>
     </row>
@@ -3971,16 +3956,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D72" s="4">
         <v>70</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>15</v>
+      <c r="E72" s="5">
+        <v>0</v>
       </c>
       <c r="F72" s="5">
         <v>16.5</v>
@@ -3991,8 +3976,8 @@
       <c r="H72" s="6">
         <v>30</v>
       </c>
-      <c r="I72" s="13" t="s">
-        <v>320</v>
+      <c r="I72" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J72" s="8"/>
     </row>
@@ -4001,16 +3986,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D73" s="4">
         <v>94</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>15</v>
+      <c r="E73" s="5">
+        <v>0</v>
       </c>
       <c r="F73" s="5">
         <v>22.1</v>
@@ -4021,8 +4006,8 @@
       <c r="H73" s="6">
         <v>30</v>
       </c>
-      <c r="I73" s="13" t="s">
-        <v>320</v>
+      <c r="I73" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J73" s="8"/>
     </row>
@@ -4031,10 +4016,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D74" s="4">
         <v>28</v>
@@ -4051,8 +4036,8 @@
       <c r="H74" s="6">
         <v>5</v>
       </c>
-      <c r="I74" s="13" t="s">
-        <v>320</v>
+      <c r="I74" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J74" s="6"/>
     </row>
@@ -4061,10 +4046,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D75" s="4">
         <v>556</v>
@@ -4081,8 +4066,8 @@
       <c r="H75" s="6">
         <v>4.5</v>
       </c>
-      <c r="I75" s="13" t="s">
-        <v>321</v>
+      <c r="I75" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J75" s="6">
         <v>100</v>
@@ -4093,10 +4078,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D76" s="4">
         <v>288</v>
@@ -4113,8 +4098,8 @@
       <c r="H76" s="6">
         <v>4</v>
       </c>
-      <c r="I76" s="13" t="s">
-        <v>320</v>
+      <c r="I76" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J76" s="8"/>
     </row>
@@ -4123,10 +4108,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D77" s="4">
         <v>16</v>
@@ -4144,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J77" s="6">
         <v>400</v>
@@ -4155,10 +4140,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D78" s="4">
         <v>27</v>
@@ -4175,8 +4160,8 @@
       <c r="H78" s="6">
         <v>5</v>
       </c>
-      <c r="I78" s="13" t="s">
-        <v>320</v>
+      <c r="I78" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J78" s="8"/>
     </row>
@@ -4185,10 +4170,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D79" s="4">
         <v>61</v>
@@ -4205,8 +4190,8 @@
       <c r="H79" s="6">
         <v>4</v>
       </c>
-      <c r="I79" s="12" t="s">
-        <v>321</v>
+      <c r="I79" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J79" s="6">
         <v>400</v>
@@ -4217,10 +4202,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D80" s="4">
         <v>97</v>
@@ -4237,10 +4222,10 @@
       <c r="H80" s="6">
         <v>3</v>
       </c>
-      <c r="I80" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="J80" s="12">
+      <c r="I80" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="J80" s="11">
         <v>400</v>
       </c>
     </row>
@@ -4249,10 +4234,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D81" s="4">
         <v>24</v>
@@ -4270,7 +4255,7 @@
         <v>4.5</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J81" s="6">
         <v>400</v>
@@ -4281,10 +4266,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D82" s="4">
         <v>290</v>
@@ -4302,7 +4287,7 @@
         <v>5</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J82" s="2">
         <v>100</v>
@@ -4313,16 +4298,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" s="4">
         <v>83</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>15</v>
+      <c r="E83" s="5">
+        <v>0</v>
       </c>
       <c r="F83" s="5">
         <v>16.5</v>
@@ -4334,7 +4319,7 @@
         <v>35</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J83" s="2"/>
     </row>
@@ -4343,16 +4328,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D84" s="4">
         <v>339</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>15</v>
+      <c r="E84" s="5">
+        <v>0</v>
       </c>
       <c r="F84" s="5">
         <v>14.1</v>
@@ -4364,7 +4349,7 @@
         <v>30</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J84" s="2"/>
     </row>
@@ -4373,10 +4358,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D85" s="4">
         <v>36</v>
@@ -4393,8 +4378,8 @@
       <c r="H85" s="6">
         <v>4</v>
       </c>
-      <c r="I85" s="13" t="s">
-        <v>320</v>
+      <c r="I85" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J85" s="2"/>
     </row>
@@ -4403,10 +4388,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D86" s="4">
         <v>293</v>
@@ -4423,8 +4408,8 @@
       <c r="H86" s="6">
         <v>6</v>
       </c>
-      <c r="I86" s="13" t="s">
-        <v>320</v>
+      <c r="I86" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J86" s="8"/>
     </row>
@@ -4433,10 +4418,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D87" s="4">
         <v>75</v>
@@ -4453,8 +4438,8 @@
       <c r="H87" s="6">
         <v>5</v>
       </c>
-      <c r="I87" s="13" t="s">
-        <v>320</v>
+      <c r="I87" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J87" s="8"/>
     </row>
@@ -4463,10 +4448,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D88" s="4">
         <v>63</v>
@@ -4483,8 +4468,8 @@
       <c r="H88" s="6">
         <v>4</v>
       </c>
-      <c r="I88" s="13" t="s">
-        <v>321</v>
+      <c r="I88" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J88" s="6">
         <v>400</v>
@@ -4495,10 +4480,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D89" s="4">
         <v>72</v>
@@ -4515,8 +4500,8 @@
       <c r="H89" s="6">
         <v>3.5</v>
       </c>
-      <c r="I89" s="13" t="s">
-        <v>321</v>
+      <c r="I89" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J89" s="6">
         <v>400</v>
@@ -4527,10 +4512,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D90" s="4">
         <v>54</v>
@@ -4547,8 +4532,8 @@
       <c r="H90" s="6">
         <v>4</v>
       </c>
-      <c r="I90" s="13" t="s">
-        <v>320</v>
+      <c r="I90" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J90" s="8"/>
     </row>
@@ -4557,10 +4542,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D91" s="4">
         <v>228</v>
@@ -4577,8 +4562,8 @@
       <c r="H91" s="6">
         <v>40</v>
       </c>
-      <c r="I91" s="13" t="s">
-        <v>320</v>
+      <c r="I91" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J91" s="8"/>
     </row>
@@ -4587,10 +4572,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D92" s="4">
         <v>98</v>
@@ -4607,8 +4592,8 @@
       <c r="H92" s="6">
         <v>45</v>
       </c>
-      <c r="I92" s="13" t="s">
-        <v>320</v>
+      <c r="I92" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="J92" s="8"/>
     </row>
@@ -4617,10 +4602,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D93" s="4">
         <v>0.4</v>
@@ -4637,8 +4622,8 @@
       <c r="H93" s="6">
         <v>5</v>
       </c>
-      <c r="I93" s="13" t="s">
-        <v>321</v>
+      <c r="I93" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="J93" s="8"/>
     </row>
@@ -4647,10 +4632,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D94" s="4">
         <v>437</v>
@@ -4667,8 +4652,8 @@
       <c r="H94" s="6">
         <v>4</v>
       </c>
-      <c r="I94" s="12" t="s">
-        <v>321</v>
+      <c r="I94" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J94" s="6">
         <v>300</v>
@@ -4679,10 +4664,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D95" s="4">
         <v>84</v>
@@ -4699,20 +4684,20 @@
       <c r="H95" s="6">
         <v>25</v>
       </c>
-      <c r="I95" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="J95" s="14"/>
+      <c r="I95" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J95" s="13"/>
     </row>
     <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D96" s="4">
         <v>142</v>
@@ -4729,20 +4714,20 @@
       <c r="H96" s="6">
         <v>23</v>
       </c>
-      <c r="I96" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="J96" s="14"/>
+      <c r="I96" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J96" s="13"/>
     </row>
     <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D97" s="4">
         <v>131</v>
@@ -4759,20 +4744,20 @@
       <c r="H97" s="6">
         <v>23</v>
       </c>
-      <c r="I97" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="J97" s="14"/>
+      <c r="I97" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J97" s="13"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D98" s="4">
         <v>168</v>
@@ -4789,8 +4774,8 @@
       <c r="H98" s="6">
         <v>20</v>
       </c>
-      <c r="I98" s="12" t="s">
-        <v>320</v>
+      <c r="I98" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J98" s="8"/>
     </row>
@@ -4799,10 +4784,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D99" s="4">
         <v>46</v>
@@ -4819,8 +4804,8 @@
       <c r="H99" s="6">
         <v>3</v>
       </c>
-      <c r="I99" s="12" t="s">
-        <v>320</v>
+      <c r="I99" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J99" s="8"/>
     </row>
@@ -4829,10 +4814,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D100" s="4">
         <v>153</v>
@@ -4849,8 +4834,8 @@
       <c r="H100" s="6">
         <v>3.5</v>
       </c>
-      <c r="I100" s="12" t="s">
-        <v>321</v>
+      <c r="I100" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J100" s="6">
         <v>400</v>
@@ -4861,10 +4846,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D101" s="4">
         <v>314</v>
@@ -4882,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J101" s="2">
         <v>100</v>
@@ -4893,10 +4878,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D102" s="4">
         <v>139</v>
@@ -4913,8 +4898,8 @@
       <c r="H102" s="6">
         <v>6</v>
       </c>
-      <c r="I102" s="12" t="s">
-        <v>321</v>
+      <c r="I102" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J102" s="2"/>
     </row>
@@ -4923,10 +4908,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D103" s="4">
         <v>29</v>
@@ -4943,8 +4928,8 @@
       <c r="H103" s="6">
         <v>5</v>
       </c>
-      <c r="I103" s="12" t="s">
-        <v>321</v>
+      <c r="I103" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J103" s="6">
         <v>350</v>
@@ -4955,10 +4940,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D104" s="4">
         <v>30</v>
@@ -4975,8 +4960,8 @@
       <c r="H104" s="6">
         <v>4.5</v>
       </c>
-      <c r="I104" s="12" t="s">
-        <v>321</v>
+      <c r="I104" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J104" s="6">
         <v>400</v>
@@ -4987,10 +4972,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D105" s="4">
         <v>70</v>
@@ -5007,8 +4992,8 @@
       <c r="H105" s="6">
         <v>1.5</v>
       </c>
-      <c r="I105" s="12" t="s">
-        <v>321</v>
+      <c r="I105" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J105" s="6">
         <v>200</v>
@@ -5019,10 +5004,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D106" s="4">
         <v>62</v>
@@ -5039,8 +5024,8 @@
       <c r="H106" s="6">
         <v>1.5</v>
       </c>
-      <c r="I106" s="12" t="s">
-        <v>321</v>
+      <c r="I106" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J106" s="6">
         <v>200</v>
@@ -5051,10 +5036,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D107" s="4">
         <v>63</v>
@@ -5071,8 +5056,8 @@
       <c r="H107" s="6">
         <v>1.7</v>
       </c>
-      <c r="I107" s="12" t="s">
-        <v>321</v>
+      <c r="I107" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J107" s="6">
         <v>200</v>
@@ -5083,10 +5068,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D108" s="4">
         <v>60</v>
@@ -5103,8 +5088,8 @@
       <c r="H108" s="6">
         <v>1</v>
       </c>
-      <c r="I108" s="12" t="s">
-        <v>321</v>
+      <c r="I108" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J108" s="6">
         <v>200</v>
@@ -5115,10 +5100,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D109" s="4">
         <v>60</v>
@@ -5135,8 +5120,8 @@
       <c r="H109" s="6">
         <v>1.5</v>
       </c>
-      <c r="I109" s="12" t="s">
-        <v>321</v>
+      <c r="I109" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J109" s="6">
         <v>200</v>
@@ -5147,10 +5132,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D110" s="4">
         <v>61</v>
@@ -5167,8 +5152,8 @@
       <c r="H110" s="6">
         <v>1.5</v>
       </c>
-      <c r="I110" s="12" t="s">
-        <v>321</v>
+      <c r="I110" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J110" s="6">
         <v>200</v>
@@ -5179,10 +5164,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D111" s="4">
         <v>326</v>
@@ -5199,8 +5184,8 @@
       <c r="H111" s="6">
         <v>20</v>
       </c>
-      <c r="I111" s="12" t="s">
-        <v>320</v>
+      <c r="I111" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J111" s="8"/>
     </row>
@@ -5209,10 +5194,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D112" s="4">
         <v>247</v>
@@ -5229,8 +5214,8 @@
       <c r="H112" s="6">
         <v>25</v>
       </c>
-      <c r="I112" s="12" t="s">
-        <v>320</v>
+      <c r="I112" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J112" s="8"/>
     </row>
@@ -5239,10 +5224,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D113" s="4">
         <v>308</v>
@@ -5259,8 +5244,8 @@
       <c r="H113" s="6">
         <v>30</v>
       </c>
-      <c r="I113" s="12" t="s">
-        <v>320</v>
+      <c r="I113" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J113" s="8"/>
     </row>
@@ -5269,10 +5254,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D114" s="4">
         <v>448</v>
@@ -5289,8 +5274,8 @@
       <c r="H114" s="6">
         <v>5</v>
       </c>
-      <c r="I114" s="12" t="s">
-        <v>321</v>
+      <c r="I114" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J114" s="6">
         <v>200</v>
@@ -5301,10 +5286,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D115" s="4">
         <v>22</v>
@@ -5321,8 +5306,8 @@
       <c r="H115" s="6">
         <v>4</v>
       </c>
-      <c r="I115" s="12" t="s">
-        <v>321</v>
+      <c r="I115" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J115" s="6">
         <v>500</v>
@@ -5333,10 +5318,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D116" s="4">
         <v>20</v>
@@ -5353,8 +5338,8 @@
       <c r="H116" s="6">
         <v>4.5</v>
       </c>
-      <c r="I116" s="12" t="s">
-        <v>321</v>
+      <c r="I116" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J116" s="6">
         <v>400</v>
@@ -5365,10 +5350,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D117" s="4">
         <v>29</v>
@@ -5385,8 +5370,8 @@
       <c r="H117" s="6">
         <v>3</v>
       </c>
-      <c r="I117" s="12" t="s">
-        <v>320</v>
+      <c r="I117" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J117" s="8"/>
     </row>
@@ -5395,10 +5380,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D118" s="4">
         <v>29</v>
@@ -5415,8 +5400,8 @@
       <c r="H118" s="6">
         <v>2</v>
       </c>
-      <c r="I118" s="12" t="s">
-        <v>320</v>
+      <c r="I118" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J118" s="8"/>
     </row>
@@ -5425,10 +5410,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D119" s="4">
         <v>27</v>
@@ -5445,8 +5430,8 @@
       <c r="H119" s="6">
         <v>3</v>
       </c>
-      <c r="I119" s="12" t="s">
-        <v>320</v>
+      <c r="I119" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J119" s="8"/>
     </row>
@@ -5455,10 +5440,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D120" s="4">
         <v>12</v>
@@ -5475,8 +5460,8 @@
       <c r="H120" s="6">
         <v>2.5</v>
       </c>
-      <c r="I120" s="12" t="s">
-        <v>320</v>
+      <c r="I120" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J120" s="6"/>
     </row>
@@ -5485,10 +5470,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D121" s="4">
         <v>12</v>
@@ -5505,8 +5490,8 @@
       <c r="H121" s="6">
         <v>4</v>
       </c>
-      <c r="I121" s="12" t="s">
-        <v>321</v>
+      <c r="I121" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J121" s="6">
         <v>400</v>
@@ -5517,10 +5502,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D122" s="4">
         <v>38</v>
@@ -5537,8 +5522,8 @@
       <c r="H122" s="6">
         <v>4</v>
       </c>
-      <c r="I122" s="12" t="s">
-        <v>320</v>
+      <c r="I122" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J122" s="8"/>
     </row>
@@ -5547,10 +5532,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D123" s="4">
         <v>110</v>
@@ -5567,8 +5552,8 @@
       <c r="H123" s="6">
         <v>25</v>
       </c>
-      <c r="I123" s="12" t="s">
-        <v>320</v>
+      <c r="I123" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J123" s="8"/>
     </row>
@@ -5577,10 +5562,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D124" s="4">
         <v>336</v>
@@ -5597,8 +5582,8 @@
       <c r="H124" s="6">
         <v>3</v>
       </c>
-      <c r="I124" s="12" t="s">
-        <v>321</v>
+      <c r="I124" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J124" s="6">
         <v>400</v>
@@ -5609,10 +5594,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D125" s="4">
         <v>346</v>
@@ -5629,8 +5614,8 @@
       <c r="H125" s="6">
         <v>3.5</v>
       </c>
-      <c r="I125" s="12" t="s">
-        <v>321</v>
+      <c r="I125" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J125" s="6">
         <v>400</v>
@@ -5641,10 +5626,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D126" s="4">
         <v>327</v>
@@ -5661,8 +5646,8 @@
       <c r="H126" s="6">
         <v>2.5</v>
       </c>
-      <c r="I126" s="12" t="s">
-        <v>321</v>
+      <c r="I126" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J126" s="6">
         <v>400</v>
@@ -5673,10 +5658,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D127" s="4">
         <v>334</v>
@@ -5693,8 +5678,8 @@
       <c r="H127" s="6">
         <v>3</v>
       </c>
-      <c r="I127" s="12" t="s">
-        <v>321</v>
+      <c r="I127" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J127" s="6">
         <v>400</v>
@@ -5705,10 +5690,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D128" s="4">
         <v>348</v>
@@ -5725,8 +5710,8 @@
       <c r="H128" s="6">
         <v>2</v>
       </c>
-      <c r="I128" s="12" t="s">
-        <v>321</v>
+      <c r="I128" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J128" s="6">
         <v>500</v>
@@ -5737,10 +5722,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D129" s="4">
         <v>2</v>
@@ -5757,8 +5742,8 @@
       <c r="H129" s="6">
         <v>18</v>
       </c>
-      <c r="I129" s="12" t="s">
-        <v>321</v>
+      <c r="I129" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J129" s="6">
         <v>250</v>
@@ -5769,10 +5754,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D130" s="4">
         <v>2</v>
@@ -5789,8 +5774,8 @@
       <c r="H130" s="6">
         <v>19</v>
       </c>
-      <c r="I130" s="12" t="s">
-        <v>321</v>
+      <c r="I130" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J130" s="6">
         <v>251</v>
@@ -5801,10 +5786,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D131" s="4">
         <v>51</v>
@@ -5821,8 +5806,8 @@
       <c r="H131" s="6">
         <v>2</v>
       </c>
-      <c r="I131" s="12" t="s">
-        <v>321</v>
+      <c r="I131" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J131" s="6">
         <v>400</v>
@@ -5833,10 +5818,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D132" s="4">
         <v>93</v>
@@ -5853,8 +5838,8 @@
       <c r="H132" s="6">
         <v>5</v>
       </c>
-      <c r="I132" s="12" t="s">
-        <v>321</v>
+      <c r="I132" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J132" s="6">
         <v>350</v>
@@ -5865,10 +5850,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D133" s="4">
         <v>236</v>
@@ -5885,8 +5870,8 @@
       <c r="H133" s="6">
         <v>25</v>
       </c>
-      <c r="I133" s="12" t="s">
-        <v>320</v>
+      <c r="I133" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J133" s="8"/>
     </row>
@@ -5895,10 +5880,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D134" s="4">
         <v>323</v>
@@ -5915,8 +5900,8 @@
       <c r="H134" s="6">
         <v>25</v>
       </c>
-      <c r="I134" s="12" t="s">
-        <v>320</v>
+      <c r="I134" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J134" s="8"/>
     </row>
@@ -5925,10 +5910,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D135" s="4">
         <v>129</v>
@@ -5946,7 +5931,7 @@
         <v>23</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J135" s="8"/>
     </row>
@@ -5955,10 +5940,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D136" s="4">
         <v>291</v>
@@ -5975,8 +5960,8 @@
       <c r="H136" s="6">
         <v>28</v>
       </c>
-      <c r="I136" s="12" t="s">
-        <v>320</v>
+      <c r="I136" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J136" s="8"/>
     </row>
@@ -5985,10 +5970,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D137" s="4">
         <v>232</v>
@@ -6005,8 +5990,8 @@
       <c r="H137" s="6">
         <v>27</v>
       </c>
-      <c r="I137" s="12" t="s">
-        <v>320</v>
+      <c r="I137" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J137" s="8"/>
     </row>
@@ -6015,10 +6000,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D138" s="4">
         <v>162</v>
@@ -6035,8 +6020,8 @@
       <c r="H138" s="6">
         <v>26</v>
       </c>
-      <c r="I138" s="12" t="s">
-        <v>320</v>
+      <c r="I138" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J138" s="8"/>
     </row>
@@ -6045,10 +6030,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D139" s="4">
         <v>247</v>
@@ -6065,8 +6050,8 @@
       <c r="H139" s="6">
         <v>22</v>
       </c>
-      <c r="I139" s="12" t="s">
-        <v>320</v>
+      <c r="I139" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J139" s="8"/>
     </row>
@@ -6075,10 +6060,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D140" s="4">
         <v>88</v>
@@ -6095,8 +6080,8 @@
       <c r="H140" s="6">
         <v>25</v>
       </c>
-      <c r="I140" s="12" t="s">
-        <v>320</v>
+      <c r="I140" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J140" s="8"/>
     </row>
@@ -6105,10 +6090,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D141" s="4">
         <v>110</v>
@@ -6126,7 +6111,7 @@
         <v>22</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J141" s="8"/>
     </row>
@@ -6135,10 +6120,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D142" s="4">
         <v>210</v>
@@ -6155,8 +6140,8 @@
       <c r="H142" s="6">
         <v>20</v>
       </c>
-      <c r="I142" s="12" t="s">
-        <v>320</v>
+      <c r="I142" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J142" s="8"/>
     </row>
@@ -6165,10 +6150,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D143" s="4">
         <v>263</v>
@@ -6185,8 +6170,8 @@
       <c r="H143" s="6">
         <v>22</v>
       </c>
-      <c r="I143" s="12" t="s">
-        <v>320</v>
+      <c r="I143" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J143" s="8"/>
     </row>
@@ -6195,10 +6180,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D144" s="4">
         <v>315</v>
@@ -6215,8 +6200,8 @@
       <c r="H144" s="6">
         <v>25</v>
       </c>
-      <c r="I144" s="12" t="s">
-        <v>320</v>
+      <c r="I144" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J144" s="8"/>
     </row>
@@ -6225,10 +6210,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D145" s="4">
         <v>56</v>
@@ -6245,8 +6230,8 @@
       <c r="H145" s="6">
         <v>1.8</v>
       </c>
-      <c r="I145" s="12" t="s">
-        <v>321</v>
+      <c r="I145" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J145" s="6">
         <v>100</v>
@@ -6257,10 +6242,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D146" s="4">
         <v>154</v>
@@ -6277,8 +6262,8 @@
       <c r="H146" s="6">
         <v>3</v>
       </c>
-      <c r="I146" s="12" t="s">
-        <v>321</v>
+      <c r="I146" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J146" s="6">
         <v>400</v>
@@ -6289,10 +6274,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D147" s="4">
         <v>51</v>
@@ -6309,8 +6294,8 @@
       <c r="H147" s="6">
         <v>5</v>
       </c>
-      <c r="I147" s="12" t="s">
-        <v>321</v>
+      <c r="I147" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J147" s="6">
         <v>1000</v>
@@ -6321,10 +6306,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D148" s="4">
         <v>69</v>
@@ -6341,8 +6326,8 @@
       <c r="H148" s="6">
         <v>5</v>
       </c>
-      <c r="I148" s="12" t="s">
-        <v>321</v>
+      <c r="I148" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J148" s="6">
         <v>1000</v>
@@ -6353,10 +6338,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D149" s="4">
         <v>92</v>
@@ -6373,8 +6358,8 @@
       <c r="H149" s="6">
         <v>3</v>
       </c>
-      <c r="I149" s="12" t="s">
-        <v>321</v>
+      <c r="I149" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J149" s="6">
         <v>200</v>
@@ -6385,10 +6370,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D150" s="4">
         <v>26</v>
@@ -6405,8 +6390,8 @@
       <c r="H150" s="6">
         <v>1.8</v>
       </c>
-      <c r="I150" s="12" t="s">
-        <v>321</v>
+      <c r="I150" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J150" s="6">
         <v>50</v>
@@ -6417,10 +6402,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D151" s="4">
         <v>63</v>
@@ -6437,8 +6422,8 @@
       <c r="H151" s="6">
         <v>3</v>
       </c>
-      <c r="I151" s="12" t="s">
-        <v>321</v>
+      <c r="I151" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="J151" s="6">
         <v>250</v>
@@ -6449,10 +6434,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D152" s="4">
         <v>156</v>
@@ -6469,8 +6454,8 @@
       <c r="H152" s="6">
         <v>35</v>
       </c>
-      <c r="I152" s="12" t="s">
-        <v>320</v>
+      <c r="I152" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J152" s="8"/>
     </row>
@@ -6479,10 +6464,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D153" s="4">
         <v>110</v>
@@ -6499,8 +6484,8 @@
       <c r="H153" s="6">
         <v>6</v>
       </c>
-      <c r="I153" s="12" t="s">
-        <v>320</v>
+      <c r="I153" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J153" s="8"/>
     </row>
@@ -6509,10 +6494,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D154" s="4">
         <v>102</v>
@@ -6530,7 +6515,7 @@
         <v>3.5</v>
       </c>
       <c r="I154" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J154" s="6">
         <v>400</v>
@@ -6541,10 +6526,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D155" s="4">
         <v>202</v>
@@ -6561,8 +6546,8 @@
       <c r="H155" s="6">
         <v>25</v>
       </c>
-      <c r="I155" s="12" t="s">
-        <v>320</v>
+      <c r="I155" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J155" s="8"/>
     </row>
@@ -6571,10 +6556,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D156" s="4">
         <v>99</v>
@@ -6591,8 +6576,8 @@
       <c r="H156" s="6">
         <v>25</v>
       </c>
-      <c r="I156" s="12" t="s">
-        <v>320</v>
+      <c r="I156" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J156" s="8"/>
     </row>
@@ -6601,10 +6586,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D157" s="4">
         <v>158</v>
@@ -6621,8 +6606,8 @@
       <c r="H157" s="6">
         <v>20</v>
       </c>
-      <c r="I157" s="12" t="s">
-        <v>320</v>
+      <c r="I157" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J157" s="8"/>
     </row>
@@ -6631,10 +6616,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D158" s="4">
         <v>186</v>
@@ -6651,8 +6636,8 @@
       <c r="H158" s="6">
         <v>22</v>
       </c>
-      <c r="I158" s="12" t="s">
-        <v>320</v>
+      <c r="I158" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J158" s="8"/>
     </row>
@@ -6661,10 +6646,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D159" s="4">
         <v>158</v>
@@ -6681,8 +6666,8 @@
       <c r="H159" s="6">
         <v>25</v>
       </c>
-      <c r="I159" s="12" t="s">
-        <v>320</v>
+      <c r="I159" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="J159" s="8"/>
     </row>
@@ -6691,10 +6676,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D160" s="4">
         <v>116</v>
@@ -6708,11 +6693,11 @@
       <c r="G160" s="5">
         <v>2.5</v>
       </c>
-      <c r="H160" s="15">
+      <c r="H160" s="14">
         <v>19.5</v>
       </c>
-      <c r="I160" s="22" t="s">
-        <v>320</v>
+      <c r="I160" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J160" s="8"/>
     </row>
@@ -6721,10 +6706,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D161" s="4">
         <v>201</v>
@@ -6738,11 +6723,11 @@
       <c r="G161" s="5">
         <v>13.6</v>
       </c>
-      <c r="H161" s="15">
+      <c r="H161" s="14">
         <v>40</v>
       </c>
-      <c r="I161" s="22" t="s">
-        <v>320</v>
+      <c r="I161" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J161" s="8"/>
     </row>
@@ -6751,10 +6736,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D162" s="4">
         <v>162</v>
@@ -6768,11 +6753,11 @@
       <c r="G162" s="5">
         <v>8.4</v>
       </c>
-      <c r="H162" s="15">
+      <c r="H162" s="14">
         <v>35</v>
       </c>
-      <c r="I162" s="22" t="s">
-        <v>320</v>
+      <c r="I162" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J162" s="8"/>
     </row>
@@ -6781,10 +6766,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D163" s="4">
         <v>714</v>
@@ -6798,11 +6783,11 @@
       <c r="G163" s="5">
         <v>79</v>
       </c>
-      <c r="H163" s="15">
+      <c r="H163" s="14">
         <v>5</v>
       </c>
-      <c r="I163" s="22" t="s">
-        <v>321</v>
+      <c r="I163" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J163" s="2">
         <v>500</v>
@@ -6813,10 +6798,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D164" s="4">
         <v>363</v>
@@ -6830,11 +6815,11 @@
       <c r="G164" s="5">
         <v>1.6</v>
       </c>
-      <c r="H164" s="15">
+      <c r="H164" s="14">
         <v>3.6</v>
       </c>
-      <c r="I164" s="22" t="s">
-        <v>321</v>
+      <c r="I164" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J164" s="2">
         <v>400</v>
@@ -6845,10 +6830,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D165" s="4">
         <v>373</v>
@@ -6862,10 +6847,10 @@
       <c r="G165" s="5">
         <v>2.6</v>
       </c>
-      <c r="H165" s="15">
+      <c r="H165" s="14">
         <v>3.7</v>
       </c>
-      <c r="I165" s="23"/>
+      <c r="I165" s="22"/>
       <c r="J165" s="8"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -6873,10 +6858,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D166" s="4">
         <v>345</v>
@@ -6890,11 +6875,11 @@
       <c r="G166" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H166" s="15">
+      <c r="H166" s="14">
         <v>4.3</v>
       </c>
-      <c r="I166" s="22" t="s">
-        <v>321</v>
+      <c r="I166" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J166" s="2">
         <v>500</v>
@@ -6905,10 +6890,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D167" s="4">
         <v>340</v>
@@ -6922,11 +6907,11 @@
       <c r="G167" s="5">
         <v>2</v>
       </c>
-      <c r="H167" s="15">
+      <c r="H167" s="14">
         <v>4.5</v>
       </c>
-      <c r="I167" s="22" t="s">
-        <v>321</v>
+      <c r="I167" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J167" s="2">
         <v>500</v>
@@ -6937,10 +6922,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D168" s="4">
         <v>181</v>
@@ -6954,11 +6939,11 @@
       <c r="G168" s="5">
         <v>11.9</v>
       </c>
-      <c r="H168" s="15">
+      <c r="H168" s="14">
         <v>25</v>
       </c>
-      <c r="I168" s="22" t="s">
-        <v>320</v>
+      <c r="I168" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J168" s="2"/>
     </row>
@@ -6967,10 +6952,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D169" s="4">
         <v>221</v>
@@ -6984,11 +6969,11 @@
       <c r="G169" s="5">
         <v>15.5</v>
       </c>
-      <c r="H169" s="15">
+      <c r="H169" s="14">
         <v>27</v>
       </c>
-      <c r="I169" s="22" t="s">
-        <v>320</v>
+      <c r="I169" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J169" s="2"/>
     </row>
@@ -6997,10 +6982,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D170" s="4">
         <v>29</v>
@@ -7014,11 +6999,11 @@
       <c r="G170" s="5">
         <v>0.3</v>
       </c>
-      <c r="H170" s="15">
+      <c r="H170" s="14">
         <v>7</v>
       </c>
-      <c r="I170" s="22" t="s">
-        <v>320</v>
+      <c r="I170" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J170" s="8"/>
     </row>
@@ -7027,10 +7012,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D171" s="4">
         <v>42</v>
@@ -7044,11 +7029,11 @@
       <c r="G171" s="5">
         <v>0.2</v>
       </c>
-      <c r="H171" s="15">
+      <c r="H171" s="14">
         <v>5</v>
       </c>
-      <c r="I171" s="22" t="s">
-        <v>320</v>
+      <c r="I171" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J171" s="8"/>
     </row>
@@ -7057,10 +7042,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D172" s="4">
         <v>27</v>
@@ -7074,11 +7059,11 @@
       <c r="G172" s="5">
         <v>0.2</v>
       </c>
-      <c r="H172" s="15">
+      <c r="H172" s="14">
         <v>3</v>
       </c>
-      <c r="I172" s="22" t="s">
-        <v>320</v>
+      <c r="I172" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J172" s="8"/>
     </row>
@@ -7087,10 +7072,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D173" s="4">
         <v>24</v>
@@ -7104,11 +7089,11 @@
       <c r="G173" s="5">
         <v>0.2</v>
       </c>
-      <c r="H173" s="15">
+      <c r="H173" s="14">
         <v>2.5</v>
       </c>
-      <c r="I173" s="22" t="s">
-        <v>321</v>
+      <c r="I173" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J173" s="2">
         <v>400</v>
@@ -7119,10 +7104,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D174" s="4">
         <v>64</v>
@@ -7136,11 +7121,11 @@
       <c r="G174" s="5">
         <v>3.1</v>
       </c>
-      <c r="H174" s="15">
+      <c r="H174" s="14">
         <v>3</v>
       </c>
-      <c r="I174" s="22" t="s">
-        <v>321</v>
+      <c r="I174" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J174" s="2">
         <v>400</v>
@@ -7151,10 +7136,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D175" s="4">
         <v>710</v>
@@ -7168,11 +7153,11 @@
       <c r="G175" s="5">
         <v>80</v>
       </c>
-      <c r="H175" s="15">
+      <c r="H175" s="14">
         <v>3.3</v>
       </c>
-      <c r="I175" s="22" t="s">
-        <v>321</v>
+      <c r="I175" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J175" s="2">
         <v>250</v>
@@ -7183,10 +7168,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D176" s="4">
         <v>400</v>
@@ -7200,11 +7185,11 @@
       <c r="G176" s="5">
         <v>23</v>
       </c>
-      <c r="H176" s="15">
+      <c r="H176" s="14">
         <v>6.4</v>
       </c>
-      <c r="I176" s="22" t="s">
-        <v>321</v>
+      <c r="I176" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J176" s="2">
         <v>250</v>
@@ -7215,10 +7200,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D177" s="4">
         <v>735</v>
@@ -7232,11 +7217,11 @@
       <c r="G177" s="5">
         <v>82.5</v>
       </c>
-      <c r="H177" s="15">
+      <c r="H177" s="14">
         <v>4</v>
       </c>
-      <c r="I177" s="22" t="s">
-        <v>321</v>
+      <c r="I177" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J177" s="2">
         <v>250</v>
@@ -7247,10 +7232,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D178" s="4">
         <v>442</v>
@@ -7264,11 +7249,11 @@
       <c r="G178" s="5">
         <v>50</v>
       </c>
-      <c r="H178" s="15">
+      <c r="H178" s="14">
         <v>3.9</v>
       </c>
-      <c r="I178" s="22" t="s">
-        <v>321</v>
+      <c r="I178" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J178" s="2">
         <v>251</v>
@@ -7279,10 +7264,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D179" s="4">
         <v>666</v>
@@ -7296,11 +7281,11 @@
       <c r="G179" s="5">
         <v>75</v>
       </c>
-      <c r="H179" s="15">
+      <c r="H179" s="14">
         <v>3.5</v>
       </c>
-      <c r="I179" s="22" t="s">
-        <v>321</v>
+      <c r="I179" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J179" s="2">
         <v>252</v>
@@ -7311,10 +7296,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D180" s="4">
         <v>37</v>
@@ -7328,11 +7313,11 @@
       <c r="G180" s="5">
         <v>0.5</v>
       </c>
-      <c r="H180" s="15">
+      <c r="H180" s="14">
         <v>2.5</v>
       </c>
-      <c r="I180" s="22" t="s">
-        <v>321</v>
+      <c r="I180" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J180" s="2">
         <v>1000</v>
@@ -7343,10 +7328,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D181" s="4">
         <v>342</v>
@@ -7360,11 +7345,11 @@
       <c r="G181" s="5">
         <v>1.2</v>
       </c>
-      <c r="H181" s="15">
+      <c r="H181" s="14">
         <v>3</v>
       </c>
-      <c r="I181" s="22" t="s">
-        <v>321</v>
+      <c r="I181" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J181" s="2">
         <v>500</v>
@@ -7375,10 +7360,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D182" s="4">
         <v>343</v>
@@ -7392,11 +7377,11 @@
       <c r="G182" s="5">
         <v>1.6</v>
       </c>
-      <c r="H182" s="15">
+      <c r="H182" s="14">
         <v>3</v>
       </c>
-      <c r="I182" s="22" t="s">
-        <v>321</v>
+      <c r="I182" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J182" s="2">
         <v>500</v>
@@ -7407,10 +7392,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D183" s="4">
         <v>247</v>
@@ -7424,11 +7409,11 @@
       <c r="G183" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="H183" s="15">
+      <c r="H183" s="14">
         <v>27</v>
       </c>
-      <c r="I183" s="22" t="s">
-        <v>320</v>
+      <c r="I183" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J183" s="2"/>
     </row>
@@ -7437,10 +7422,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D184" s="4">
         <v>36</v>
@@ -7454,11 +7439,11 @@
       <c r="G184" s="5">
         <v>0.3</v>
       </c>
-      <c r="H184" s="15">
+      <c r="H184" s="14">
         <v>5</v>
       </c>
-      <c r="I184" s="22" t="s">
-        <v>320</v>
+      <c r="I184" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J184" s="2"/>
     </row>
@@ -7467,10 +7452,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D185" s="4">
         <v>572</v>
@@ -7484,11 +7469,11 @@
       <c r="G185" s="5">
         <v>52</v>
       </c>
-      <c r="H185" s="15">
+      <c r="H185" s="14">
         <v>6</v>
       </c>
-      <c r="I185" s="22" t="s">
-        <v>321</v>
+      <c r="I185" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J185" s="2">
         <v>300</v>
@@ -7499,10 +7484,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D186" s="4">
         <v>73</v>
@@ -7516,11 +7501,11 @@
       <c r="G186" s="5">
         <v>0.6</v>
       </c>
-      <c r="H186" s="15">
+      <c r="H186" s="14">
         <v>28</v>
       </c>
-      <c r="I186" s="22" t="s">
-        <v>320</v>
+      <c r="I186" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J186" s="2"/>
     </row>
@@ -7529,10 +7514,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D187" s="4">
         <v>324</v>
@@ -7546,11 +7531,11 @@
       <c r="G187" s="5">
         <v>0</v>
       </c>
-      <c r="H187" s="15">
+      <c r="H187" s="14">
         <v>35</v>
       </c>
-      <c r="I187" s="22" t="s">
-        <v>321</v>
+      <c r="I187" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J187" s="2">
         <v>1000</v>
@@ -7561,10 +7546,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D188" s="4">
         <v>68</v>
@@ -7578,11 +7563,11 @@
       <c r="G188" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H188" s="15">
+      <c r="H188" s="14">
         <v>6</v>
       </c>
-      <c r="I188" s="22" t="s">
-        <v>321</v>
+      <c r="I188" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J188" s="2">
         <v>1000</v>
@@ -7593,10 +7578,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D189" s="4">
         <v>107</v>
@@ -7610,11 +7595,11 @@
       <c r="G189" s="5">
         <v>7</v>
       </c>
-      <c r="H189" s="15">
+      <c r="H189" s="14">
         <v>6.5</v>
       </c>
-      <c r="I189" s="22" t="s">
-        <v>321</v>
+      <c r="I189" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J189" s="2">
         <v>1000</v>
@@ -7625,10 +7610,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D190" s="4">
         <v>39</v>
@@ -7642,11 +7627,11 @@
       <c r="G190" s="5">
         <v>0.5</v>
       </c>
-      <c r="H190" s="15">
+      <c r="H190" s="14">
         <v>3.2</v>
       </c>
-      <c r="I190" s="22" t="s">
-        <v>321</v>
+      <c r="I190" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J190" s="2">
         <v>1000</v>
@@ -7657,10 +7642,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D191" s="4">
         <v>47</v>
@@ -7674,11 +7659,11 @@
       <c r="G191" s="5">
         <v>1.5</v>
       </c>
-      <c r="H191" s="15">
+      <c r="H191" s="14">
         <v>3.2</v>
       </c>
-      <c r="I191" s="22" t="s">
-        <v>321</v>
+      <c r="I191" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J191" s="2">
         <v>1000</v>
@@ -7689,10 +7674,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D192" s="4">
         <v>51</v>
@@ -7706,11 +7691,11 @@
       <c r="G192" s="5">
         <v>2</v>
       </c>
-      <c r="H192" s="15">
+      <c r="H192" s="14">
         <v>3.2</v>
       </c>
-      <c r="I192" s="22" t="s">
-        <v>321</v>
+      <c r="I192" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J192" s="2">
         <v>1000</v>
@@ -7721,10 +7706,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D193" s="4">
         <v>61</v>
@@ -7738,11 +7723,11 @@
       <c r="G193" s="5">
         <v>3.2</v>
       </c>
-      <c r="H193" s="15">
+      <c r="H193" s="14">
         <v>3.3</v>
       </c>
-      <c r="I193" s="22" t="s">
-        <v>321</v>
+      <c r="I193" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J193" s="2">
         <v>1000</v>
@@ -7753,10 +7738,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D194" s="4">
         <v>64</v>
@@ -7770,11 +7755,11 @@
       <c r="G194" s="5">
         <v>3.5</v>
       </c>
-      <c r="H194" s="15">
+      <c r="H194" s="14">
         <v>3.3</v>
       </c>
-      <c r="I194" s="22" t="s">
-        <v>321</v>
+      <c r="I194" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J194" s="2">
         <v>1000</v>
@@ -7785,10 +7770,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D195" s="4">
         <v>47</v>
@@ -7802,11 +7787,11 @@
       <c r="G195" s="5">
         <v>0.2</v>
       </c>
-      <c r="H195" s="15">
+      <c r="H195" s="14">
         <v>7</v>
       </c>
-      <c r="I195" s="22" t="s">
-        <v>320</v>
+      <c r="I195" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J195" s="2"/>
     </row>
@@ -7815,10 +7800,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D196" s="4">
         <v>284</v>
@@ -7832,11 +7817,11 @@
       <c r="G196" s="5">
         <v>1.2</v>
       </c>
-      <c r="H196" s="15">
+      <c r="H196" s="14">
         <v>8</v>
       </c>
-      <c r="I196" s="22" t="s">
-        <v>321</v>
+      <c r="I196" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J196" s="2">
         <v>300</v>
@@ -7847,10 +7832,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D197" s="4">
         <v>157</v>
@@ -7864,11 +7849,11 @@
       <c r="G197" s="5">
         <v>0.1</v>
       </c>
-      <c r="H197" s="15">
+      <c r="H197" s="14">
         <v>4.5</v>
       </c>
-      <c r="I197" s="22" t="s">
-        <v>321</v>
+      <c r="I197" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J197" s="2">
         <v>350</v>
@@ -7879,10 +7864,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D198" s="4">
         <v>89</v>
@@ -7896,11 +7881,11 @@
       <c r="G198" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H198" s="15">
+      <c r="H198" s="14">
         <v>26</v>
       </c>
-      <c r="I198" s="22" t="s">
-        <v>320</v>
+      <c r="I198" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J198" s="2"/>
     </row>
@@ -7909,10 +7894,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D199" s="4">
         <v>127</v>
@@ -7926,11 +7911,11 @@
       <c r="G199" s="5">
         <v>0.5</v>
       </c>
-      <c r="H199" s="15">
+      <c r="H199" s="14">
         <v>3.8</v>
       </c>
-      <c r="I199" s="22" t="s">
-        <v>321</v>
+      <c r="I199" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J199" s="2">
         <v>200</v>
@@ -7941,10 +7926,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D200" s="4">
         <v>325</v>
@@ -7958,11 +7943,11 @@
       <c r="G200" s="5">
         <v>3.4</v>
       </c>
-      <c r="H200" s="15">
+      <c r="H200" s="14">
         <v>9</v>
       </c>
-      <c r="I200" s="22" t="s">
-        <v>321</v>
+      <c r="I200" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J200" s="2">
         <v>500</v>
@@ -7973,10 +7958,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D201" s="4">
         <v>375</v>
@@ -7990,11 +7975,11 @@
       <c r="G201" s="5">
         <v>12.7</v>
       </c>
-      <c r="H201" s="15">
+      <c r="H201" s="14">
         <v>7</v>
       </c>
-      <c r="I201" s="22" t="s">
-        <v>321</v>
+      <c r="I201" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J201" s="2">
         <v>500</v>
@@ -8005,10 +7990,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D202" s="4">
         <v>162</v>
@@ -8022,11 +8007,11 @@
       <c r="G202" s="5">
         <v>6.4</v>
       </c>
-      <c r="H202" s="15">
+      <c r="H202" s="14">
         <v>3.8</v>
       </c>
-      <c r="I202" s="22" t="s">
-        <v>321</v>
+      <c r="I202" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J202" s="2">
         <v>300</v>
@@ -8037,10 +8022,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D203" s="4">
         <v>82</v>
@@ -8054,11 +8039,11 @@
       <c r="G203" s="5">
         <v>1.9</v>
       </c>
-      <c r="H203" s="15">
+      <c r="H203" s="14">
         <v>4</v>
       </c>
-      <c r="I203" s="22" t="s">
-        <v>321</v>
+      <c r="I203" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J203" s="2">
         <v>400</v>
@@ -8069,10 +8054,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D204" s="4">
         <v>81</v>
@@ -8086,11 +8071,11 @@
       <c r="G204" s="5">
         <v>2.1</v>
       </c>
-      <c r="H204" s="15">
+      <c r="H204" s="14">
         <v>4</v>
       </c>
-      <c r="I204" s="22" t="s">
-        <v>321</v>
+      <c r="I204" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J204" s="2">
         <v>400</v>
@@ -8101,10 +8086,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D205" s="4">
         <v>48</v>
@@ -8118,11 +8103,11 @@
       <c r="G205" s="5">
         <v>0.2</v>
       </c>
-      <c r="H205" s="15">
+      <c r="H205" s="14">
         <v>5.5</v>
       </c>
-      <c r="I205" s="22" t="s">
-        <v>320</v>
+      <c r="I205" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J205" s="2"/>
     </row>
@@ -8131,10 +8116,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D206" s="4">
         <v>20</v>
@@ -8148,11 +8133,11 @@
       <c r="G206" s="5">
         <v>0</v>
       </c>
-      <c r="H206" s="15">
+      <c r="H206" s="14">
         <v>7</v>
       </c>
-      <c r="I206" s="22" t="s">
-        <v>321</v>
+      <c r="I206" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J206" s="2">
         <v>750</v>
@@ -8163,10 +8148,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D207" s="4">
         <v>15</v>
@@ -8180,11 +8165,11 @@
       <c r="G207" s="5">
         <v>0.1</v>
       </c>
-      <c r="H207" s="15">
+      <c r="H207" s="14">
         <v>5.5</v>
       </c>
-      <c r="I207" s="22" t="s">
-        <v>320</v>
+      <c r="I207" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J207" s="2"/>
     </row>
@@ -8193,10 +8178,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D208" s="4">
         <v>12</v>
@@ -8210,11 +8195,11 @@
       <c r="G208" s="5">
         <v>0.2</v>
       </c>
-      <c r="H208" s="15">
+      <c r="H208" s="14">
         <v>5.5</v>
       </c>
-      <c r="I208" s="22" t="s">
-        <v>320</v>
+      <c r="I208" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J208" s="2"/>
     </row>
@@ -8223,10 +8208,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D209" s="4">
         <v>900</v>
@@ -8240,11 +8225,11 @@
       <c r="G209" s="5">
         <v>100</v>
       </c>
-      <c r="H209" s="15">
+      <c r="H209" s="14">
         <v>5.9</v>
       </c>
-      <c r="I209" s="22" t="s">
-        <v>321</v>
+      <c r="I209" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J209" s="2">
         <v>750</v>
@@ -8255,10 +8240,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D210" s="4">
         <v>900</v>
@@ -8272,11 +8257,11 @@
       <c r="G210" s="5">
         <v>100</v>
       </c>
-      <c r="H210" s="15">
+      <c r="H210" s="14">
         <v>8</v>
       </c>
-      <c r="I210" s="22" t="s">
-        <v>321</v>
+      <c r="I210" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J210" s="2">
         <v>750</v>
@@ -8287,10 +8272,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D211" s="4">
         <v>900</v>
@@ -8304,11 +8289,11 @@
       <c r="G211" s="5">
         <v>100</v>
       </c>
-      <c r="H211" s="15">
+      <c r="H211" s="14">
         <v>5</v>
       </c>
-      <c r="I211" s="22" t="s">
-        <v>321</v>
+      <c r="I211" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J211" s="2">
         <v>750</v>
@@ -8319,10 +8304,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D212" s="4">
         <v>900</v>
@@ -8336,11 +8321,11 @@
       <c r="G212" s="5">
         <v>100</v>
       </c>
-      <c r="H212" s="15">
+      <c r="H212" s="14">
         <v>5.5</v>
       </c>
-      <c r="I212" s="22" t="s">
-        <v>321</v>
+      <c r="I212" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J212" s="2">
         <v>750</v>
@@ -8351,10 +8336,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D213" s="4">
         <v>900</v>
@@ -8368,11 +8353,11 @@
       <c r="G213" s="5">
         <v>100</v>
       </c>
-      <c r="H213" s="15">
+      <c r="H213" s="14">
         <v>8</v>
       </c>
-      <c r="I213" s="22" t="s">
-        <v>321</v>
+      <c r="I213" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J213" s="2">
         <v>750</v>
@@ -8383,10 +8368,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D214" s="4">
         <v>897</v>
@@ -8400,11 +8385,11 @@
       <c r="G214" s="5">
         <v>99.6</v>
       </c>
-      <c r="H214" s="15">
+      <c r="H214" s="14">
         <v>15</v>
       </c>
-      <c r="I214" s="22" t="s">
-        <v>321</v>
+      <c r="I214" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J214" s="2">
         <v>750</v>
@@ -8415,10 +8400,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D215" s="4">
         <v>147</v>
@@ -8432,11 +8417,11 @@
       <c r="G215" s="5">
         <v>13.9</v>
       </c>
-      <c r="H215" s="15">
+      <c r="H215" s="14">
         <v>4.2</v>
       </c>
-      <c r="I215" s="22" t="s">
-        <v>321</v>
+      <c r="I215" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J215" s="2">
         <v>350</v>
@@ -8447,10 +8432,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D216" s="4">
         <v>595</v>
@@ -8464,11 +8449,11 @@
       <c r="G216" s="5">
         <v>46.1</v>
       </c>
-      <c r="H216" s="15">
+      <c r="H216" s="14">
         <v>25</v>
       </c>
-      <c r="I216" s="22" t="s">
-        <v>320</v>
+      <c r="I216" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J216" s="2"/>
     </row>
@@ -8477,10 +8462,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D217" s="4">
         <v>695</v>
@@ -8494,11 +8479,11 @@
       <c r="G217" s="5">
         <v>65.900000000000006</v>
       </c>
-      <c r="H217" s="15">
+      <c r="H217" s="14">
         <v>25</v>
       </c>
-      <c r="I217" s="22" t="s">
-        <v>320</v>
+      <c r="I217" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J217" s="2"/>
     </row>
@@ -8507,10 +8492,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D218" s="4">
         <v>638</v>
@@ -8524,11 +8509,11 @@
       <c r="G218" s="5">
         <v>54</v>
       </c>
-      <c r="H218" s="15">
+      <c r="H218" s="14">
         <v>26</v>
       </c>
-      <c r="I218" s="22" t="s">
-        <v>320</v>
+      <c r="I218" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J218" s="2"/>
     </row>
@@ -8537,10 +8522,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D219" s="4">
         <v>618</v>
@@ -8554,11 +8539,11 @@
       <c r="G219" s="5">
         <v>51.6</v>
       </c>
-      <c r="H219" s="15">
+      <c r="H219" s="14">
         <v>28</v>
       </c>
-      <c r="I219" s="22" t="s">
-        <v>320</v>
+      <c r="I219" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J219" s="2"/>
     </row>
@@ -8567,10 +8552,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D220" s="4">
         <v>679</v>
@@ -8584,11 +8569,11 @@
       <c r="G220" s="5">
         <v>60.3</v>
       </c>
-      <c r="H220" s="15">
+      <c r="H220" s="14">
         <v>26</v>
       </c>
-      <c r="I220" s="22" t="s">
-        <v>320</v>
+      <c r="I220" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J220" s="2"/>
     </row>
@@ -8597,10 +8582,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D221" s="4">
         <v>634</v>
@@ -8614,11 +8599,11 @@
       <c r="G221" s="5">
         <v>53</v>
       </c>
-      <c r="H221" s="15">
+      <c r="H221" s="14">
         <v>18</v>
       </c>
-      <c r="I221" s="22" t="s">
-        <v>320</v>
+      <c r="I221" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J221" s="2"/>
     </row>
@@ -8627,10 +8612,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D222" s="4">
         <v>85</v>
@@ -8644,11 +8629,11 @@
       <c r="G222" s="5">
         <v>5</v>
       </c>
-      <c r="H222" s="15">
+      <c r="H222" s="14">
         <v>40</v>
       </c>
-      <c r="I222" s="22" t="s">
-        <v>320</v>
+      <c r="I222" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J222" s="2"/>
     </row>
@@ -8657,10 +8642,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D223" s="4">
         <v>183</v>
@@ -8674,11 +8659,11 @@
       <c r="G223" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H223" s="15">
+      <c r="H223" s="14">
         <v>3.5</v>
       </c>
-      <c r="I223" s="22" t="s">
-        <v>321</v>
+      <c r="I223" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J223" s="2">
         <v>400</v>
@@ -8689,10 +8674,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D224" s="4">
         <v>43</v>
@@ -8706,11 +8691,11 @@
       <c r="G224" s="5">
         <v>0.1</v>
       </c>
-      <c r="H224" s="15">
+      <c r="H224" s="14">
         <v>4.5</v>
       </c>
-      <c r="I224" s="22" t="s">
-        <v>321</v>
+      <c r="I224" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J224" s="2">
         <v>250</v>
@@ -8721,10 +8706,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D225" s="4">
         <v>35</v>
@@ -8738,11 +8723,11 @@
       <c r="G225" s="5">
         <v>0.3</v>
       </c>
-      <c r="H225" s="15">
+      <c r="H225" s="14">
         <v>9.5</v>
       </c>
-      <c r="I225" s="22" t="s">
-        <v>320</v>
+      <c r="I225" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J225" s="2"/>
     </row>
@@ -8751,10 +8736,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D226" s="4">
         <v>37</v>
@@ -8768,11 +8753,11 @@
       <c r="G226" s="5">
         <v>1.5</v>
       </c>
-      <c r="H226" s="15">
+      <c r="H226" s="14">
         <v>5</v>
       </c>
-      <c r="I226" s="22" t="s">
-        <v>321</v>
+      <c r="I226" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J226" s="2">
         <v>350</v>
@@ -8783,10 +8768,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D227" s="4">
         <v>223</v>
@@ -8800,11 +8785,11 @@
       <c r="G227" s="5">
         <v>19.100000000000001</v>
       </c>
-      <c r="H227" s="15">
+      <c r="H227" s="14">
         <v>5.5</v>
       </c>
-      <c r="I227" s="22" t="s">
-        <v>321</v>
+      <c r="I227" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J227" s="2">
         <v>250</v>
@@ -8815,10 +8800,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D228" s="4">
         <v>190</v>
@@ -8832,11 +8817,11 @@
       <c r="G228" s="5">
         <v>14</v>
       </c>
-      <c r="H228" s="15">
+      <c r="H228" s="14">
         <v>5</v>
       </c>
-      <c r="I228" s="22" t="s">
-        <v>321</v>
+      <c r="I228" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J228" s="2">
         <v>250</v>
@@ -8847,10 +8832,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D229" s="4">
         <v>262</v>
@@ -8864,11 +8849,11 @@
       <c r="G229" s="5">
         <v>22.4</v>
       </c>
-      <c r="H229" s="15">
+      <c r="H229" s="14">
         <v>5</v>
       </c>
-      <c r="I229" s="22" t="s">
-        <v>321</v>
+      <c r="I229" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J229" s="2">
         <v>250</v>
@@ -8879,10 +8864,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D230" s="4">
         <v>405</v>
@@ -8896,11 +8881,11 @@
       <c r="G230" s="5">
         <v>38.200000000000003</v>
       </c>
-      <c r="H230" s="15">
+      <c r="H230" s="14">
         <v>15</v>
       </c>
-      <c r="I230" s="22" t="s">
-        <v>320</v>
+      <c r="I230" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J230" s="2"/>
     </row>
@@ -8909,10 +8894,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D231" s="4">
         <v>270</v>
@@ -8926,11 +8911,11 @@
       <c r="G231" s="5">
         <v>23.8</v>
       </c>
-      <c r="H231" s="15">
+      <c r="H231" s="14">
         <v>15</v>
       </c>
-      <c r="I231" s="22" t="s">
-        <v>320</v>
+      <c r="I231" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J231" s="2"/>
     </row>
@@ -8939,10 +8924,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D232" s="4">
         <v>0.24</v>
@@ -8956,11 +8941,11 @@
       <c r="G232" s="5">
         <v>0</v>
       </c>
-      <c r="H232" s="15">
+      <c r="H232" s="14">
         <v>4.5</v>
       </c>
-      <c r="I232" s="22" t="s">
-        <v>321</v>
+      <c r="I232" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J232" s="2">
         <v>1000</v>
@@ -8971,10 +8956,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D233" s="4">
         <v>0.24</v>
@@ -8988,11 +8973,11 @@
       <c r="G233" s="5">
         <v>0</v>
       </c>
-      <c r="H233" s="15">
+      <c r="H233" s="14">
         <v>4.5</v>
       </c>
-      <c r="I233" s="22" t="s">
-        <v>321</v>
+      <c r="I233" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J233" s="2">
         <v>1000</v>
@@ -9003,10 +8988,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D234" s="4">
         <v>596</v>
@@ -9020,11 +9005,11 @@
       <c r="G234" s="5">
         <v>46.7</v>
       </c>
-      <c r="H234" s="15">
+      <c r="H234" s="14">
         <v>7</v>
       </c>
-      <c r="I234" s="22" t="s">
-        <v>321</v>
+      <c r="I234" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J234" s="2">
         <v>250</v>
@@ -9035,10 +9020,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D235" s="4">
         <v>34</v>
@@ -9052,11 +9037,11 @@
       <c r="G235" s="5">
         <v>0.3</v>
       </c>
-      <c r="H235" s="15">
+      <c r="H235" s="14">
         <v>9</v>
       </c>
-      <c r="I235" s="22" t="s">
-        <v>321</v>
+      <c r="I235" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J235" s="2">
         <v>300</v>
@@ -9067,10 +9052,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D236" s="4">
         <v>23</v>
@@ -9084,11 +9069,11 @@
       <c r="G236" s="5">
         <v>0.4</v>
       </c>
-      <c r="H236" s="16">
+      <c r="H236" s="15">
         <v>7.5</v>
       </c>
-      <c r="I236" s="24" t="s">
-        <v>321</v>
+      <c r="I236" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J236" s="7">
         <v>400</v>
@@ -9099,10 +9084,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D237" s="4">
         <v>331</v>
@@ -9116,11 +9101,11 @@
       <c r="G237" s="5">
         <v>2.1</v>
       </c>
-      <c r="H237" s="15">
+      <c r="H237" s="14">
         <v>5.5</v>
       </c>
-      <c r="I237" s="22" t="s">
-        <v>321</v>
+      <c r="I237" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J237" s="2">
         <v>200</v>
@@ -9131,10 +9116,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D238" s="4">
         <v>24</v>
@@ -9148,11 +9133,11 @@
       <c r="G238" s="5">
         <v>0.4</v>
       </c>
-      <c r="H238" s="15">
+      <c r="H238" s="14">
         <v>5</v>
       </c>
-      <c r="I238" s="22" t="s">
-        <v>321</v>
+      <c r="I238" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J238" s="2">
         <v>400</v>
@@ -9163,10 +9148,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D239" s="4">
         <v>360</v>
@@ -9180,11 +9165,11 @@
       <c r="G239" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H239" s="16">
+      <c r="H239" s="15">
         <v>3.5</v>
       </c>
-      <c r="I239" s="24" t="s">
-        <v>321</v>
+      <c r="I239" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J239" s="7">
         <v>300</v>
@@ -9195,10 +9180,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D240" s="4">
         <v>317</v>
@@ -9212,11 +9197,11 @@
       <c r="G240" s="5">
         <v>11.8</v>
       </c>
-      <c r="H240" s="16">
+      <c r="H240" s="15">
         <v>13</v>
       </c>
-      <c r="I240" s="22" t="s">
-        <v>320</v>
+      <c r="I240" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J240" s="2"/>
     </row>
@@ -9225,16 +9210,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D241" s="4">
         <v>109</v>
       </c>
-      <c r="E241" s="5" t="s">
-        <v>213</v>
+      <c r="E241" s="5">
+        <v>0</v>
       </c>
       <c r="F241" s="5">
         <v>21.3</v>
@@ -9242,11 +9227,11 @@
       <c r="G241" s="5">
         <v>2.6</v>
       </c>
-      <c r="H241" s="15">
+      <c r="H241" s="14">
         <v>28</v>
       </c>
-      <c r="I241" s="22" t="s">
-        <v>320</v>
+      <c r="I241" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J241" s="2"/>
     </row>
@@ -9255,16 +9240,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D242" s="4">
         <v>100</v>
       </c>
-      <c r="E242" s="5" t="s">
-        <v>213</v>
+      <c r="E242" s="5">
+        <v>0</v>
       </c>
       <c r="F242" s="5">
         <v>21.5</v>
@@ -9272,11 +9257,11 @@
       <c r="G242" s="5">
         <v>1.3</v>
       </c>
-      <c r="H242" s="15">
+      <c r="H242" s="14">
         <v>24</v>
       </c>
-      <c r="I242" s="22" t="s">
-        <v>320</v>
+      <c r="I242" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J242" s="2"/>
     </row>
@@ -9285,16 +9270,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D243" s="4">
         <v>155</v>
       </c>
-      <c r="E243" s="5" t="s">
-        <v>213</v>
+      <c r="E243" s="5">
+        <v>0</v>
       </c>
       <c r="F243" s="5">
         <v>19.3</v>
@@ -9302,11 +9287,11 @@
       <c r="G243" s="5">
         <v>8.6</v>
       </c>
-      <c r="H243" s="15">
+      <c r="H243" s="14">
         <v>22</v>
       </c>
-      <c r="I243" s="22" t="s">
-        <v>320</v>
+      <c r="I243" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J243" s="2"/>
     </row>
@@ -9315,10 +9300,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D244" s="4">
         <v>83</v>
@@ -9332,11 +9317,11 @@
       <c r="G244" s="5">
         <v>0.5</v>
       </c>
-      <c r="H244" s="15">
+      <c r="H244" s="14">
         <v>3</v>
       </c>
-      <c r="I244" s="22" t="s">
-        <v>320</v>
+      <c r="I244" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J244" s="2"/>
     </row>
@@ -9345,10 +9330,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D245" s="4">
         <v>60</v>
@@ -9362,11 +9347,11 @@
       <c r="G245" s="5">
         <v>1</v>
       </c>
-      <c r="H245" s="15">
+      <c r="H245" s="14">
         <v>1.8</v>
       </c>
-      <c r="I245" s="22" t="s">
-        <v>321</v>
+      <c r="I245" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J245" s="2">
         <v>50</v>
@@ -9377,10 +9362,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D246" s="4">
         <v>27</v>
@@ -9394,11 +9379,11 @@
       <c r="G246" s="5">
         <v>0</v>
       </c>
-      <c r="H246" s="16">
+      <c r="H246" s="15">
         <v>5</v>
       </c>
-      <c r="I246" s="24" t="s">
-        <v>321</v>
+      <c r="I246" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J246" s="7">
         <v>500</v>
@@ -9409,10 +9394,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D247" s="4">
         <v>42</v>
@@ -9426,11 +9411,11 @@
       <c r="G247" s="5">
         <v>0</v>
       </c>
-      <c r="H247" s="16">
+      <c r="H247" s="15">
         <v>4.5</v>
       </c>
-      <c r="I247" s="24" t="s">
-        <v>321</v>
+      <c r="I247" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J247" s="7">
         <v>501</v>
@@ -9441,10 +9426,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D248" s="4">
         <v>64</v>
@@ -9458,11 +9443,11 @@
       <c r="G248" s="5">
         <v>0</v>
       </c>
-      <c r="H248" s="16">
+      <c r="H248" s="15">
         <v>5.2</v>
       </c>
-      <c r="I248" s="24" t="s">
-        <v>321</v>
+      <c r="I248" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J248" s="7">
         <v>502</v>
@@ -9473,10 +9458,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D249" s="4">
         <v>49</v>
@@ -9490,11 +9475,11 @@
       <c r="G249" s="5">
         <v>0</v>
       </c>
-      <c r="H249" s="16">
+      <c r="H249" s="15">
         <v>5.2</v>
       </c>
-      <c r="I249" s="24" t="s">
-        <v>321</v>
+      <c r="I249" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J249" s="7">
         <v>503</v>
@@ -9505,10 +9490,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D250" s="4">
         <v>389</v>
@@ -9522,11 +9507,11 @@
       <c r="G250" s="5">
         <v>3.6</v>
       </c>
-      <c r="H250" s="15">
+      <c r="H250" s="14">
         <v>3.9</v>
       </c>
-      <c r="I250" s="24" t="s">
-        <v>321</v>
+      <c r="I250" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J250" s="2">
         <v>400</v>
@@ -9537,10 +9522,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D251" s="4">
         <v>385</v>
@@ -9554,11 +9539,11 @@
       <c r="G251" s="5">
         <v>2.5</v>
       </c>
-      <c r="H251" s="15">
+      <c r="H251" s="14">
         <v>3</v>
       </c>
-      <c r="I251" s="24" t="s">
-        <v>321</v>
+      <c r="I251" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J251" s="2">
         <v>400</v>
@@ -9569,10 +9554,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D252" s="4">
         <v>390</v>
@@ -9586,11 +9571,11 @@
       <c r="G252" s="5">
         <v>7.2</v>
       </c>
-      <c r="H252" s="15">
+      <c r="H252" s="14">
         <v>2.5</v>
       </c>
-      <c r="I252" s="22" t="s">
-        <v>321</v>
+      <c r="I252" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J252" s="2">
         <v>450</v>
@@ -9601,10 +9586,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D253" s="4">
         <v>354</v>
@@ -9618,11 +9603,11 @@
       <c r="G253" s="5">
         <v>3.4</v>
       </c>
-      <c r="H253" s="15">
+      <c r="H253" s="14">
         <v>4</v>
       </c>
-      <c r="I253" s="22" t="s">
-        <v>321</v>
+      <c r="I253" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J253" s="2">
         <v>400</v>
@@ -9633,10 +9618,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D254" s="4">
         <v>387</v>
@@ -9650,11 +9635,11 @@
       <c r="G254" s="5">
         <v>3</v>
       </c>
-      <c r="H254" s="15">
+      <c r="H254" s="14">
         <v>3.5</v>
       </c>
-      <c r="I254" s="22" t="s">
-        <v>321</v>
+      <c r="I254" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J254" s="2">
         <v>400</v>
@@ -9665,10 +9650,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D255" s="4">
         <v>385</v>
@@ -9682,11 +9667,11 @@
       <c r="G255" s="5">
         <v>3.2</v>
       </c>
-      <c r="H255" s="15">
+      <c r="H255" s="14">
         <v>3.5</v>
       </c>
-      <c r="I255" s="22" t="s">
-        <v>321</v>
+      <c r="I255" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J255" s="2">
         <v>400</v>
@@ -9697,10 +9682,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D256" s="4">
         <v>112</v>
@@ -9714,11 +9699,11 @@
       <c r="G256" s="5">
         <v>3.5</v>
       </c>
-      <c r="H256" s="15">
+      <c r="H256" s="14">
         <v>35</v>
       </c>
-      <c r="I256" s="22" t="s">
-        <v>320</v>
+      <c r="I256" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J256" s="2"/>
     </row>
@@ -9727,10 +9712,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D257" s="4">
         <v>29</v>
@@ -9744,11 +9729,11 @@
       <c r="G257" s="5">
         <v>0.5</v>
       </c>
-      <c r="H257" s="15">
+      <c r="H257" s="14">
         <v>10</v>
       </c>
-      <c r="I257" s="22" t="s">
-        <v>320</v>
+      <c r="I257" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J257" s="2"/>
     </row>
@@ -9757,10 +9742,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D258" s="4">
         <v>29</v>
@@ -9774,11 +9759,11 @@
       <c r="G258" s="5">
         <v>0.5</v>
       </c>
-      <c r="H258" s="15">
+      <c r="H258" s="14">
         <v>15</v>
       </c>
-      <c r="I258" s="22" t="s">
-        <v>320</v>
+      <c r="I258" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J258" s="2"/>
     </row>
@@ -9787,10 +9772,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D259" s="4">
         <v>29</v>
@@ -9804,11 +9789,11 @@
       <c r="G259" s="5">
         <v>0.5</v>
       </c>
-      <c r="H259" s="15">
+      <c r="H259" s="14">
         <v>8</v>
       </c>
-      <c r="I259" s="22" t="s">
-        <v>320</v>
+      <c r="I259" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J259" s="2"/>
     </row>
@@ -9817,10 +9802,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D260" s="4">
         <v>47</v>
@@ -9834,11 +9819,11 @@
       <c r="G260" s="5">
         <v>0.1</v>
       </c>
-      <c r="H260" s="15">
+      <c r="H260" s="14">
         <v>5</v>
       </c>
-      <c r="I260" s="22" t="s">
-        <v>320</v>
+      <c r="I260" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J260" s="2"/>
     </row>
@@ -9847,10 +9832,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D261" s="4">
         <v>51</v>
@@ -9864,11 +9849,11 @@
       <c r="G261" s="5">
         <v>0.2</v>
       </c>
-      <c r="H261" s="15">
+      <c r="H261" s="14">
         <v>6</v>
       </c>
-      <c r="I261" s="22" t="s">
-        <v>320</v>
+      <c r="I261" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J261" s="2"/>
     </row>
@@ -9877,10 +9862,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D262" s="4">
         <v>63</v>
@@ -9894,11 +9879,11 @@
       <c r="G262" s="5">
         <v>0.4</v>
       </c>
-      <c r="H262" s="15">
+      <c r="H262" s="14">
         <v>8</v>
       </c>
-      <c r="I262" s="22" t="s">
-        <v>320</v>
+      <c r="I262" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J262" s="2"/>
     </row>
@@ -9907,10 +9892,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D263" s="4">
         <v>84</v>
@@ -9924,11 +9909,11 @@
       <c r="G263" s="5">
         <v>0.9</v>
       </c>
-      <c r="H263" s="15">
+      <c r="H263" s="14">
         <v>8</v>
       </c>
-      <c r="I263" s="22" t="s">
-        <v>320</v>
+      <c r="I263" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J263" s="2"/>
     </row>
@@ -9937,10 +9922,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D264" s="4">
         <v>64</v>
@@ -9954,11 +9939,11 @@
       <c r="G264" s="5">
         <v>0.4</v>
       </c>
-      <c r="H264" s="15">
+      <c r="H264" s="14">
         <v>7.5</v>
       </c>
-      <c r="I264" s="22" t="s">
-        <v>320</v>
+      <c r="I264" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J264" s="2"/>
     </row>
@@ -9967,10 +9952,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D265" s="4">
         <v>218</v>
@@ -9984,11 +9969,11 @@
       <c r="G265" s="5">
         <v>0.2</v>
       </c>
-      <c r="H265" s="15">
+      <c r="H265" s="14">
         <v>5</v>
       </c>
-      <c r="I265" s="22" t="s">
-        <v>321</v>
+      <c r="I265" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J265" s="2">
         <v>350</v>
@@ -9999,10 +9984,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D266" s="4">
         <v>41</v>
@@ -10016,11 +10001,11 @@
       <c r="G266" s="5">
         <v>0.5</v>
       </c>
-      <c r="H266" s="15">
+      <c r="H266" s="14">
         <v>6</v>
       </c>
-      <c r="I266" s="22" t="s">
-        <v>320</v>
+      <c r="I266" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J266" s="2"/>
     </row>
@@ -10029,10 +10014,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D267" s="4">
         <v>534</v>
@@ -10046,11 +10031,11 @@
       <c r="G267" s="5">
         <v>31.5</v>
       </c>
-      <c r="H267" s="15">
+      <c r="H267" s="14">
         <v>3</v>
       </c>
-      <c r="I267" s="22" t="s">
-        <v>321</v>
+      <c r="I267" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J267" s="2">
         <v>100</v>
@@ -10061,10 +10046,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D268" s="4">
         <v>562</v>
@@ -10078,11 +10063,11 @@
       <c r="G268" s="5">
         <v>34.6</v>
       </c>
-      <c r="H268" s="15">
+      <c r="H268" s="14">
         <v>3</v>
       </c>
-      <c r="I268" s="22" t="s">
-        <v>321</v>
+      <c r="I268" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J268" s="2">
         <v>100</v>
@@ -10093,16 +10078,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D269" s="4">
         <v>96</v>
       </c>
-      <c r="E269" s="5" t="s">
-        <v>213</v>
+      <c r="E269" s="5">
+        <v>0</v>
       </c>
       <c r="F269" s="5">
         <v>19.2</v>
@@ -10110,11 +10095,11 @@
       <c r="G269" s="5">
         <v>2.1</v>
       </c>
-      <c r="H269" s="15">
+      <c r="H269" s="14">
         <v>25</v>
       </c>
-      <c r="I269" s="22" t="s">
-        <v>320</v>
+      <c r="I269" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J269" s="2"/>
     </row>
@@ -10123,10 +10108,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D270" s="4">
         <v>18</v>
@@ -10140,11 +10125,11 @@
       <c r="G270" s="5">
         <v>0.1</v>
       </c>
-      <c r="H270" s="15">
+      <c r="H270" s="14">
         <v>10</v>
       </c>
-      <c r="I270" s="22" t="s">
-        <v>320</v>
+      <c r="I270" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J270" s="2"/>
     </row>
@@ -10153,10 +10138,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D271" s="4">
         <v>298</v>
@@ -10170,11 +10155,11 @@
       <c r="G271" s="5">
         <v>0.5</v>
       </c>
-      <c r="H271" s="15">
+      <c r="H271" s="14">
         <v>5</v>
       </c>
-      <c r="I271" s="22" t="s">
-        <v>321</v>
+      <c r="I271" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J271" s="2">
         <v>150</v>
@@ -10185,16 +10170,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D272" s="4">
         <v>152</v>
       </c>
-      <c r="E272" s="5" t="s">
-        <v>213</v>
+      <c r="E272" s="5">
+        <v>0</v>
       </c>
       <c r="F272" s="5">
         <v>21.5</v>
@@ -10202,11 +10187,11 @@
       <c r="G272" s="5">
         <v>7.3</v>
       </c>
-      <c r="H272" s="15">
+      <c r="H272" s="14">
         <v>38</v>
       </c>
-      <c r="I272" s="22" t="s">
-        <v>320</v>
+      <c r="I272" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J272" s="2"/>
     </row>
@@ -10215,16 +10200,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D273" s="4">
         <v>158</v>
       </c>
-      <c r="E273" s="5" t="s">
-        <v>213</v>
+      <c r="E273" s="5">
+        <v>0</v>
       </c>
       <c r="F273" s="5">
         <v>16.7</v>
@@ -10232,11 +10217,11 @@
       <c r="G273" s="5">
         <v>10.1</v>
       </c>
-      <c r="H273" s="15">
+      <c r="H273" s="14">
         <v>40</v>
       </c>
-      <c r="I273" s="22" t="s">
-        <v>320</v>
+      <c r="I273" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J273" s="2"/>
     </row>
@@ -10245,10 +10230,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D274" s="4">
         <v>349</v>
@@ -10262,11 +10247,11 @@
       <c r="G274" s="5">
         <v>0.7</v>
       </c>
-      <c r="H274" s="15">
+      <c r="H274" s="14">
         <v>2.5</v>
       </c>
-      <c r="I274" s="22" t="s">
-        <v>321</v>
+      <c r="I274" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J274" s="2">
         <v>400</v>
@@ -10277,10 +10262,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D275" s="4">
         <v>353</v>
@@ -10294,11 +10279,11 @@
       <c r="G275" s="5">
         <v>1.9</v>
       </c>
-      <c r="H275" s="15">
+      <c r="H275" s="14">
         <v>3.5</v>
       </c>
-      <c r="I275" s="22" t="s">
-        <v>321</v>
+      <c r="I275" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J275" s="2">
         <v>400</v>
@@ -10309,10 +10294,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D276" s="4">
         <v>351</v>
@@ -10326,11 +10311,11 @@
       <c r="G276" s="5">
         <v>0.4</v>
       </c>
-      <c r="H276" s="15">
+      <c r="H276" s="14">
         <v>4</v>
       </c>
-      <c r="I276" s="22" t="s">
-        <v>321</v>
+      <c r="I276" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J276" s="2">
         <v>400</v>
@@ -10341,10 +10326,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D277" s="4">
         <v>349</v>
@@ -10358,11 +10343,11 @@
       <c r="G277" s="5">
         <v>0.7</v>
       </c>
-      <c r="H277" s="15">
+      <c r="H277" s="14">
         <v>3.2</v>
       </c>
-      <c r="I277" s="22" t="s">
-        <v>321</v>
+      <c r="I277" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J277" s="2">
         <v>400</v>
@@ -10373,10 +10358,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D278" s="4">
         <v>349</v>
@@ -10390,11 +10375,11 @@
       <c r="G278" s="5">
         <v>0.7</v>
       </c>
-      <c r="H278" s="15">
+      <c r="H278" s="14">
         <v>3</v>
       </c>
-      <c r="I278" s="22" t="s">
-        <v>321</v>
+      <c r="I278" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J278" s="2">
         <v>400</v>
@@ -10405,10 +10390,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D279" s="4">
         <v>15</v>
@@ -10422,11 +10407,11 @@
       <c r="G279" s="5">
         <v>0.1</v>
       </c>
-      <c r="H279" s="15">
+      <c r="H279" s="14">
         <v>4</v>
       </c>
-      <c r="I279" s="22" t="s">
-        <v>321</v>
+      <c r="I279" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J279" s="2">
         <v>150</v>
@@ -10437,10 +10422,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D280" s="4">
         <v>21</v>
@@ -10454,11 +10439,11 @@
       <c r="G280" s="5">
         <v>0.4</v>
       </c>
-      <c r="H280" s="15">
+      <c r="H280" s="14">
         <v>4</v>
       </c>
-      <c r="I280" s="22" t="s">
-        <v>321</v>
+      <c r="I280" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J280" s="2">
         <v>300</v>
@@ -10469,10 +10454,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D281" s="4">
         <v>20</v>
@@ -10486,11 +10471,11 @@
       <c r="G281" s="5">
         <v>0.3</v>
       </c>
-      <c r="H281" s="15">
+      <c r="H281" s="14">
         <v>3.8</v>
       </c>
-      <c r="I281" s="22" t="s">
-        <v>321</v>
+      <c r="I281" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J281" s="2">
         <v>500</v>
@@ -10501,10 +10486,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D282" s="4">
         <v>20</v>
@@ -10518,11 +10503,11 @@
       <c r="G282" s="5">
         <v>0.3</v>
       </c>
-      <c r="H282" s="15">
+      <c r="H282" s="14">
         <v>4</v>
       </c>
-      <c r="I282" s="22" t="s">
-        <v>321</v>
+      <c r="I282" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J282" s="2">
         <v>500</v>
@@ -10533,10 +10518,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D283" s="4">
         <v>80</v>
@@ -10550,11 +10535,11 @@
       <c r="G283" s="5">
         <v>0.3</v>
       </c>
-      <c r="H283" s="15">
+      <c r="H283" s="14">
         <v>27</v>
       </c>
-      <c r="I283" s="22" t="s">
-        <v>320</v>
+      <c r="I283" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J283" s="2"/>
     </row>
@@ -10563,16 +10548,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D284" s="4">
         <v>202</v>
       </c>
-      <c r="E284" s="5" t="s">
-        <v>213</v>
+      <c r="E284" s="5">
+        <v>0</v>
       </c>
       <c r="F284" s="5">
         <v>24</v>
@@ -10580,11 +10565,11 @@
       <c r="G284" s="5">
         <v>11.5</v>
       </c>
-      <c r="H284" s="15">
+      <c r="H284" s="14">
         <v>4.5</v>
       </c>
-      <c r="I284" s="22" t="s">
-        <v>321</v>
+      <c r="I284" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J284" s="2">
         <v>180</v>
@@ -10595,10 +10580,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D285" s="4">
         <v>163</v>
@@ -10612,11 +10597,11 @@
       <c r="G285" s="5">
         <v>9.9</v>
       </c>
-      <c r="H285" s="16">
+      <c r="H285" s="15">
         <v>4.5</v>
       </c>
-      <c r="I285" s="24" t="s">
-        <v>321</v>
+      <c r="I285" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J285" s="7">
         <v>180</v>
@@ -10627,10 +10612,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D286" s="4">
         <v>102</v>
@@ -10644,11 +10629,11 @@
       <c r="G286" s="5">
         <v>1.9</v>
       </c>
-      <c r="H286" s="15">
+      <c r="H286" s="14">
         <v>40</v>
       </c>
-      <c r="I286" s="22" t="s">
-        <v>320</v>
+      <c r="I286" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J286" s="2"/>
     </row>
@@ -10657,16 +10642,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D287" s="4">
         <v>174</v>
       </c>
-      <c r="E287" s="5" t="s">
-        <v>213</v>
+      <c r="E287" s="5">
+        <v>0</v>
       </c>
       <c r="F287" s="5">
         <v>21</v>
@@ -10674,11 +10659,11 @@
       <c r="G287" s="5">
         <v>10</v>
       </c>
-      <c r="H287" s="15">
+      <c r="H287" s="14">
         <v>18</v>
       </c>
-      <c r="I287" s="22" t="s">
-        <v>320</v>
+      <c r="I287" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J287" s="2"/>
     </row>
@@ -10687,10 +10672,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D288" s="4">
         <v>61</v>
@@ -10704,11 +10689,11 @@
       <c r="G288" s="5">
         <v>0.2</v>
       </c>
-      <c r="H288" s="15">
+      <c r="H288" s="14">
         <v>4</v>
       </c>
-      <c r="I288" s="22" t="s">
-        <v>320</v>
+      <c r="I288" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J288" s="2"/>
     </row>
@@ -10717,10 +10702,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D289" s="4">
         <v>216</v>
@@ -10734,11 +10719,11 @@
       <c r="G289" s="5">
         <v>16</v>
       </c>
-      <c r="H289" s="15">
+      <c r="H289" s="14">
         <v>3.8</v>
       </c>
-      <c r="I289" s="22" t="s">
-        <v>321</v>
+      <c r="I289" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J289" s="2">
         <v>270</v>
@@ -10749,10 +10734,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D290" s="4">
         <v>293</v>
@@ -10766,11 +10751,11 @@
       <c r="G290" s="5">
         <v>24.5</v>
       </c>
-      <c r="H290" s="16">
+      <c r="H290" s="15">
         <v>6</v>
       </c>
-      <c r="I290" s="24" t="s">
-        <v>321</v>
+      <c r="I290" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J290" s="7">
         <v>125</v>
@@ -10781,10 +10766,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D291" s="4">
         <v>354</v>
@@ -10798,11 +10783,11 @@
       <c r="G291" s="5">
         <v>29.3</v>
       </c>
-      <c r="H291" s="16">
+      <c r="H291" s="15">
         <v>5.8</v>
       </c>
-      <c r="I291" s="24" t="s">
-        <v>321</v>
+      <c r="I291" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J291" s="7">
         <v>125</v>
@@ -10813,10 +10798,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D292" s="4">
         <v>332</v>
@@ -10830,11 +10815,11 @@
       <c r="G292" s="5">
         <v>28</v>
       </c>
-      <c r="H292" s="16">
+      <c r="H292" s="15">
         <v>5.5</v>
       </c>
-      <c r="I292" s="24" t="s">
-        <v>321</v>
+      <c r="I292" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J292" s="7">
         <v>125</v>
@@ -10845,10 +10830,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D293" s="4">
         <v>263</v>
@@ -10862,11 +10847,11 @@
       <c r="G293" s="5">
         <v>19.8</v>
       </c>
-      <c r="H293" s="16">
+      <c r="H293" s="15">
         <v>5</v>
       </c>
-      <c r="I293" s="24" t="s">
-        <v>321</v>
+      <c r="I293" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J293" s="7">
         <v>125</v>
@@ -10877,10 +10862,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D294" s="4">
         <v>382</v>
@@ -10894,11 +10879,11 @@
       <c r="G294" s="5">
         <v>29.3</v>
       </c>
-      <c r="H294" s="16">
+      <c r="H294" s="15">
         <v>25</v>
       </c>
-      <c r="I294" s="24" t="s">
-        <v>320</v>
+      <c r="I294" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="J294" s="7"/>
     </row>
@@ -10907,10 +10892,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D295" s="4">
         <v>383</v>
@@ -10924,11 +10909,11 @@
       <c r="G295" s="5">
         <v>29.7</v>
       </c>
-      <c r="H295" s="16">
+      <c r="H295" s="15">
         <v>26</v>
       </c>
-      <c r="I295" s="24" t="s">
-        <v>320</v>
+      <c r="I295" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="J295" s="2"/>
     </row>
@@ -10937,10 +10922,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D296" s="4">
         <v>330</v>
@@ -10954,11 +10939,11 @@
       <c r="G296" s="5">
         <v>23.2</v>
       </c>
-      <c r="H296" s="16">
+      <c r="H296" s="15">
         <v>26</v>
       </c>
-      <c r="I296" s="24" t="s">
-        <v>320</v>
+      <c r="I296" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="J296" s="2"/>
     </row>
@@ -10967,10 +10952,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D297" s="4">
         <v>314</v>
@@ -10984,11 +10969,11 @@
       <c r="G297" s="5">
         <v>22</v>
       </c>
-      <c r="H297" s="16">
+      <c r="H297" s="15">
         <v>28</v>
       </c>
-      <c r="I297" s="24" t="s">
-        <v>320</v>
+      <c r="I297" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="J297" s="2"/>
     </row>
@@ -10997,10 +10982,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D298" s="4">
         <v>224</v>
@@ -11014,11 +10999,11 @@
       <c r="G298" s="5">
         <v>16</v>
       </c>
-      <c r="H298" s="16">
+      <c r="H298" s="15">
         <v>30</v>
       </c>
-      <c r="I298" s="24" t="s">
-        <v>320</v>
+      <c r="I298" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="J298" s="2"/>
     </row>
@@ -11027,10 +11012,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D299" s="4">
         <v>349</v>
@@ -11044,11 +11029,11 @@
       <c r="G299" s="5">
         <v>27.4</v>
       </c>
-      <c r="H299" s="16">
+      <c r="H299" s="15">
         <v>25</v>
       </c>
-      <c r="I299" s="24" t="s">
-        <v>320</v>
+      <c r="I299" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="J299" s="2"/>
     </row>
@@ -11057,10 +11042,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D300" s="4">
         <v>408</v>
@@ -11074,11 +11059,11 @@
       <c r="G300" s="5">
         <v>29.7</v>
       </c>
-      <c r="H300" s="16">
+      <c r="H300" s="15">
         <v>35</v>
       </c>
-      <c r="I300" s="24" t="s">
-        <v>320</v>
+      <c r="I300" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="J300" s="2"/>
     </row>
@@ -11087,10 +11072,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D301" s="4">
         <v>354</v>
@@ -11104,11 +11089,11 @@
       <c r="G301" s="5">
         <v>28.1</v>
       </c>
-      <c r="H301" s="16">
+      <c r="H301" s="15">
         <v>20</v>
       </c>
-      <c r="I301" s="24" t="s">
-        <v>320</v>
+      <c r="I301" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="J301" s="2"/>
     </row>
@@ -11117,10 +11102,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D302" s="4">
         <v>329</v>
@@ -11134,11 +11119,11 @@
       <c r="G302" s="5">
         <v>22.1</v>
       </c>
-      <c r="H302" s="16">
+      <c r="H302" s="15">
         <v>22</v>
       </c>
-      <c r="I302" s="24" t="s">
-        <v>320</v>
+      <c r="I302" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="J302" s="2"/>
     </row>
@@ -11147,10 +11132,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D303" s="4">
         <v>356</v>
@@ -11164,11 +11149,11 @@
       <c r="G303" s="5">
         <v>27.9</v>
       </c>
-      <c r="H303" s="16">
+      <c r="H303" s="15">
         <v>24</v>
       </c>
-      <c r="I303" s="24" t="s">
-        <v>320</v>
+      <c r="I303" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="J303" s="2"/>
     </row>
@@ -11177,10 +11162,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D304" s="4">
         <v>327</v>
@@ -11194,11 +11179,11 @@
       <c r="G304" s="5">
         <v>23</v>
       </c>
-      <c r="H304" s="16">
+      <c r="H304" s="15">
         <v>26</v>
       </c>
-      <c r="I304" s="24" t="s">
-        <v>320</v>
+      <c r="I304" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="J304" s="2"/>
     </row>
@@ -11207,10 +11192,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D305" s="4">
         <v>98</v>
@@ -11224,11 +11209,11 @@
       <c r="G305" s="5">
         <v>0.5</v>
       </c>
-      <c r="H305" s="15">
+      <c r="H305" s="14">
         <v>2.8</v>
       </c>
-      <c r="I305" s="22" t="s">
-        <v>321</v>
+      <c r="I305" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J305" s="2">
         <v>250</v>
@@ -11239,10 +11224,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D306" s="4">
         <v>132</v>
@@ -11256,11 +11241,11 @@
       <c r="G306" s="5">
         <v>4.7</v>
       </c>
-      <c r="H306" s="15">
+      <c r="H306" s="14">
         <v>2.9</v>
       </c>
-      <c r="I306" s="22" t="s">
-        <v>321</v>
+      <c r="I306" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J306" s="2">
         <v>250</v>
@@ -11271,10 +11256,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D307" s="4">
         <v>176</v>
@@ -11288,11 +11273,11 @@
       <c r="G307" s="5">
         <v>10.1</v>
       </c>
-      <c r="H307" s="15">
+      <c r="H307" s="14">
         <v>3</v>
       </c>
-      <c r="I307" s="22" t="s">
-        <v>321</v>
+      <c r="I307" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J307" s="2">
         <v>250</v>
@@ -11303,10 +11288,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D308" s="4">
         <v>384</v>
@@ -11320,11 +11305,11 @@
       <c r="G308" s="5">
         <v>37.1</v>
       </c>
-      <c r="H308" s="15">
+      <c r="H308" s="14">
         <v>2.5</v>
       </c>
-      <c r="I308" s="22" t="s">
-        <v>321</v>
+      <c r="I308" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J308" s="2">
         <v>80</v>
@@ -11335,10 +11320,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D309" s="4">
         <v>167</v>
@@ -11352,11 +11337,11 @@
       <c r="G309" s="5">
         <v>3.9</v>
       </c>
-      <c r="H309" s="16">
+      <c r="H309" s="15">
         <v>2.6</v>
       </c>
-      <c r="I309" s="24" t="s">
-        <v>321</v>
+      <c r="I309" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J309" s="7">
         <v>80</v>
@@ -11367,10 +11352,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D310" s="4">
         <v>158</v>
@@ -11384,11 +11369,11 @@
       <c r="G310" s="5">
         <v>4.2</v>
       </c>
-      <c r="H310" s="16">
+      <c r="H310" s="15">
         <v>2.6</v>
       </c>
-      <c r="I310" s="24" t="s">
-        <v>321</v>
+      <c r="I310" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J310" s="7">
         <v>80</v>
@@ -11399,10 +11384,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D311" s="4">
         <v>101</v>
@@ -11416,11 +11401,11 @@
       <c r="G311" s="5">
         <v>4.3</v>
       </c>
-      <c r="H311" s="15">
+      <c r="H311" s="14">
         <v>2</v>
       </c>
-      <c r="I311" s="22" t="s">
-        <v>321</v>
+      <c r="I311" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J311" s="2">
         <v>200</v>
@@ -11431,10 +11416,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D312" s="4">
         <v>273</v>
@@ -11448,11 +11433,11 @@
       <c r="G312" s="5">
         <v>9</v>
       </c>
-      <c r="H312" s="15">
+      <c r="H312" s="14">
         <v>18</v>
       </c>
-      <c r="I312" s="22" t="s">
-        <v>320</v>
+      <c r="I312" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J312" s="2"/>
     </row>
@@ -11461,10 +11446,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D313" s="4">
         <v>342</v>
@@ -11478,11 +11463,11 @@
       <c r="G313" s="5">
         <v>13.9</v>
       </c>
-      <c r="H313" s="15">
+      <c r="H313" s="14">
         <v>19</v>
       </c>
-      <c r="I313" s="22" t="s">
-        <v>320</v>
+      <c r="I313" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J313" s="2"/>
     </row>
@@ -11491,10 +11476,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D314" s="4">
         <v>25</v>
@@ -11508,11 +11493,11 @@
       <c r="G314" s="5">
         <v>0.1</v>
       </c>
-      <c r="H314" s="15">
+      <c r="H314" s="14">
         <v>2</v>
       </c>
-      <c r="I314" s="22" t="s">
-        <v>321</v>
+      <c r="I314" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J314" s="2">
         <v>1000</v>
@@ -11523,10 +11508,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D315" s="4">
         <v>367</v>
@@ -11540,11 +11525,11 @@
       <c r="G315" s="5">
         <v>0.1</v>
       </c>
-      <c r="H315" s="15">
+      <c r="H315" s="14">
         <v>3</v>
       </c>
-      <c r="I315" s="22" t="s">
-        <v>321</v>
+      <c r="I315" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J315" s="2">
         <v>500</v>
@@ -11555,16 +11540,16 @@
         <v>315</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D316" s="4">
         <v>169</v>
       </c>
-      <c r="E316" s="5" t="s">
-        <v>213</v>
+      <c r="E316" s="5">
+        <v>0</v>
       </c>
       <c r="F316" s="5">
         <v>16.5</v>
@@ -11572,11 +11557,11 @@
       <c r="G316" s="5">
         <v>11.4</v>
       </c>
-      <c r="H316" s="15">
+      <c r="H316" s="14">
         <v>14</v>
       </c>
-      <c r="I316" s="22" t="s">
-        <v>320</v>
+      <c r="I316" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J316" s="2"/>
     </row>
@@ -11585,10 +11570,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D317" s="4">
         <v>580</v>
@@ -11602,11 +11587,11 @@
       <c r="G317" s="5">
         <v>49</v>
       </c>
-      <c r="H317" s="15">
+      <c r="H317" s="14">
         <v>5</v>
       </c>
-      <c r="I317" s="22" t="s">
-        <v>321</v>
+      <c r="I317" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J317" s="2">
         <v>300</v>
@@ -11617,10 +11602,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D318" s="4">
         <v>347</v>
@@ -11634,11 +11619,11 @@
       <c r="G318" s="5">
         <v>1</v>
       </c>
-      <c r="H318" s="15">
+      <c r="H318" s="14">
         <v>4</v>
       </c>
-      <c r="I318" s="22" t="s">
-        <v>321</v>
+      <c r="I318" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J318" s="2">
         <v>500</v>
@@ -11649,10 +11634,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D319" s="4">
         <v>442</v>
@@ -11666,11 +11651,11 @@
       <c r="G319" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="H319" s="15">
+      <c r="H319" s="14">
         <v>5</v>
       </c>
-      <c r="I319" s="22" t="s">
-        <v>321</v>
+      <c r="I319" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J319" s="2">
         <v>500</v>
@@ -11681,16 +11666,16 @@
         <v>319</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D320" s="4">
         <v>83</v>
       </c>
-      <c r="E320" s="5" t="s">
-        <v>213</v>
+      <c r="E320" s="5">
+        <v>0</v>
       </c>
       <c r="F320" s="5">
         <v>17.5</v>
@@ -11698,11 +11683,11 @@
       <c r="G320" s="5">
         <v>1.4</v>
       </c>
-      <c r="H320" s="15">
+      <c r="H320" s="14">
         <v>26</v>
       </c>
-      <c r="I320" s="22" t="s">
-        <v>320</v>
+      <c r="I320" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J320" s="2"/>
     </row>
@@ -11711,10 +11696,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D321" s="4">
         <v>48</v>
@@ -11728,11 +11713,11 @@
       <c r="G321" s="5">
         <v>0.1</v>
       </c>
-      <c r="H321" s="15">
+      <c r="H321" s="14">
         <v>5</v>
       </c>
-      <c r="I321" s="22" t="s">
-        <v>321</v>
+      <c r="I321" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J321" s="2">
         <v>1000</v>
@@ -11743,10 +11728,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D322" s="4">
         <v>35</v>
@@ -11760,11 +11745,11 @@
       <c r="G322" s="5">
         <v>0.2</v>
       </c>
-      <c r="H322" s="15">
+      <c r="H322" s="14">
         <v>4.8</v>
       </c>
-      <c r="I322" s="22" t="s">
-        <v>321</v>
+      <c r="I322" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J322" s="2">
         <v>1000</v>
@@ -11775,10 +11760,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D323" s="4">
         <v>45</v>
@@ -11792,11 +11777,11 @@
       <c r="G323" s="5">
         <v>0.4</v>
       </c>
-      <c r="H323" s="15">
+      <c r="H323" s="14">
         <v>4.5</v>
       </c>
-      <c r="I323" s="22" t="s">
-        <v>321</v>
+      <c r="I323" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J323" s="2">
         <v>1000</v>
@@ -11807,10 +11792,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D324" s="4">
         <v>48</v>
@@ -11824,11 +11809,11 @@
       <c r="G324" s="5">
         <v>0.1</v>
       </c>
-      <c r="H324" s="15">
+      <c r="H324" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I324" s="22" t="s">
-        <v>321</v>
+      <c r="I324" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J324" s="2">
         <v>1000</v>
@@ -11839,10 +11824,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D325" s="4">
         <v>45</v>
@@ -11856,11 +11841,11 @@
       <c r="G325" s="5">
         <v>0.1</v>
       </c>
-      <c r="H325" s="15">
+      <c r="H325" s="14">
         <v>5</v>
       </c>
-      <c r="I325" s="22" t="s">
-        <v>321</v>
+      <c r="I325" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J325" s="2">
         <v>1000</v>
@@ -11871,10 +11856,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D326" s="4">
         <v>19</v>
@@ -11888,11 +11873,11 @@
       <c r="G326" s="5">
         <v>0.6</v>
       </c>
-      <c r="H326" s="15">
+      <c r="H326" s="14">
         <v>5.2</v>
       </c>
-      <c r="I326" s="22" t="s">
-        <v>321</v>
+      <c r="I326" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J326" s="2">
         <v>1000</v>
@@ -11903,10 +11888,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D327" s="4">
         <v>45</v>
@@ -11920,11 +11905,11 @@
       <c r="G327" s="5">
         <v>0.3</v>
       </c>
-      <c r="H327" s="15">
+      <c r="H327" s="14">
         <v>5.5</v>
       </c>
-      <c r="I327" s="22" t="s">
-        <v>321</v>
+      <c r="I327" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J327" s="2">
         <v>1000</v>
@@ -11935,10 +11920,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D328" s="4">
         <v>262</v>
@@ -11952,11 +11937,11 @@
       <c r="G328" s="5">
         <v>0.1</v>
       </c>
-      <c r="H328" s="15">
+      <c r="H328" s="14">
         <v>5</v>
       </c>
-      <c r="I328" s="22" t="s">
-        <v>321</v>
+      <c r="I328" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J328" s="2">
         <v>500</v>
@@ -11967,10 +11952,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D329" s="4">
         <v>39</v>
@@ -11984,11 +11969,11 @@
       <c r="G329" s="5">
         <v>0.8</v>
       </c>
-      <c r="H329" s="15">
+      <c r="H329" s="14">
         <v>3</v>
       </c>
-      <c r="I329" s="22" t="s">
-        <v>321</v>
+      <c r="I329" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J329" s="2">
         <v>400</v>
@@ -11999,16 +11984,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D330" s="4">
         <v>81</v>
       </c>
-      <c r="E330" s="5" t="s">
-        <v>213</v>
+      <c r="E330" s="5">
+        <v>0</v>
       </c>
       <c r="F330" s="5">
         <v>18.399999999999999</v>
@@ -12016,11 +12001,11 @@
       <c r="G330" s="5">
         <v>0.8</v>
       </c>
-      <c r="H330" s="15">
+      <c r="H330" s="14">
         <v>45</v>
       </c>
-      <c r="I330" s="22" t="s">
-        <v>320</v>
+      <c r="I330" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J330" s="2"/>
     </row>
@@ -12029,10 +12014,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D331" s="4">
         <v>39</v>
@@ -12046,11 +12031,11 @@
       <c r="G331" s="5">
         <v>0.8</v>
       </c>
-      <c r="H331" s="15">
+      <c r="H331" s="14">
         <v>2</v>
       </c>
-      <c r="I331" s="22" t="s">
-        <v>321</v>
+      <c r="I331" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J331" s="2">
         <v>50</v>
@@ -12061,10 +12046,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D332" s="4">
         <v>24</v>
@@ -12078,11 +12063,11 @@
       <c r="G332" s="5">
         <v>0.2</v>
       </c>
-      <c r="H332" s="15">
+      <c r="H332" s="14">
         <v>7</v>
       </c>
-      <c r="I332" s="22" t="s">
-        <v>321</v>
+      <c r="I332" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J332" s="2">
         <v>300</v>
@@ -12093,10 +12078,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D333" s="4">
         <v>26</v>
@@ -12110,11 +12095,11 @@
       <c r="G333" s="5">
         <v>0.4</v>
       </c>
-      <c r="H333" s="15">
+      <c r="H333" s="14">
         <v>4</v>
       </c>
-      <c r="I333" s="22" t="s">
-        <v>321</v>
+      <c r="I333" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J333" s="2">
         <v>400</v>
@@ -12125,10 +12110,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D334" s="4">
         <v>218</v>
@@ -12142,11 +12127,11 @@
       <c r="G334" s="5">
         <v>15.7</v>
       </c>
-      <c r="H334" s="15">
+      <c r="H334" s="14">
         <v>37</v>
       </c>
-      <c r="I334" s="22" t="s">
-        <v>320</v>
+      <c r="I334" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J334" s="2"/>
     </row>
@@ -12155,10 +12140,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D335" s="4">
         <v>264</v>
@@ -12172,11 +12157,11 @@
       <c r="G335" s="5">
         <v>21.3</v>
       </c>
-      <c r="H335" s="15">
+      <c r="H335" s="14">
         <v>25</v>
       </c>
-      <c r="I335" s="22" t="s">
-        <v>320</v>
+      <c r="I335" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J335" s="2"/>
     </row>
@@ -12185,10 +12170,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D336" s="4">
         <v>389</v>
@@ -12202,11 +12187,11 @@
       <c r="G336" s="5">
         <v>33</v>
       </c>
-      <c r="H336" s="15">
+      <c r="H336" s="14">
         <v>26</v>
       </c>
-      <c r="I336" s="22" t="s">
-        <v>320</v>
+      <c r="I336" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J336" s="2"/>
     </row>
@@ -12215,10 +12200,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D337" s="4">
         <v>134</v>
@@ -12232,11 +12217,11 @@
       <c r="G337" s="5">
         <v>12</v>
       </c>
-      <c r="H337" s="15">
+      <c r="H337" s="14">
         <v>3</v>
       </c>
-      <c r="I337" s="22" t="s">
-        <v>321</v>
+      <c r="I337" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J337" s="2">
         <v>400</v>
@@ -12247,10 +12232,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D338" s="4">
         <v>186</v>
@@ -12264,11 +12249,11 @@
       <c r="G338" s="5">
         <v>18</v>
       </c>
-      <c r="H338" s="15">
+      <c r="H338" s="14">
         <v>3</v>
       </c>
-      <c r="I338" s="22" t="s">
-        <v>321</v>
+      <c r="I338" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J338" s="2">
         <v>400</v>
@@ -12279,10 +12264,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D339" s="4">
         <v>162</v>
@@ -12296,11 +12281,11 @@
       <c r="G339" s="5">
         <v>10.7</v>
       </c>
-      <c r="H339" s="15">
+      <c r="H339" s="14">
         <v>20</v>
       </c>
-      <c r="I339" s="22" t="s">
-        <v>320</v>
+      <c r="I339" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J339" s="2"/>
     </row>
@@ -12309,10 +12294,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D340" s="4">
         <v>343</v>
@@ -12326,11 +12311,11 @@
       <c r="G340" s="5">
         <v>29.4</v>
       </c>
-      <c r="H340" s="15">
+      <c r="H340" s="14">
         <v>3</v>
       </c>
-      <c r="I340" s="22" t="s">
-        <v>321</v>
+      <c r="I340" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J340" s="2">
         <v>200</v>
@@ -12341,10 +12326,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D341" s="4">
         <v>177</v>
@@ -12358,11 +12343,11 @@
       <c r="G341" s="5">
         <v>12.8</v>
       </c>
-      <c r="H341" s="16">
+      <c r="H341" s="15">
         <v>3.5</v>
       </c>
-      <c r="I341" s="24" t="s">
-        <v>321</v>
+      <c r="I341" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J341" s="7">
         <v>200</v>
@@ -12373,10 +12358,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D342" s="4">
         <v>70</v>
@@ -12390,11 +12375,11 @@
       <c r="G342" s="5">
         <v>0.3</v>
       </c>
-      <c r="H342" s="15">
+      <c r="H342" s="14">
         <v>7</v>
       </c>
-      <c r="I342" s="22" t="s">
-        <v>320</v>
+      <c r="I342" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J342" s="2"/>
     </row>
@@ -12403,10 +12388,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D343" s="4">
         <v>311</v>
@@ -12420,11 +12405,11 @@
       <c r="G343" s="5">
         <v>0.9</v>
       </c>
-      <c r="H343" s="15">
+      <c r="H343" s="14">
         <v>5</v>
       </c>
-      <c r="I343" s="22" t="s">
-        <v>321</v>
+      <c r="I343" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J343" s="2">
         <v>350</v>
@@ -12435,10 +12420,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D344" s="4">
         <v>28</v>
@@ -12452,11 +12437,11 @@
       <c r="G344" s="5">
         <v>0.4</v>
       </c>
-      <c r="H344" s="15">
+      <c r="H344" s="14">
         <v>7</v>
       </c>
-      <c r="I344" s="22" t="s">
-        <v>320</v>
+      <c r="I344" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J344" s="2"/>
     </row>
@@ -12465,10 +12450,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D345" s="4">
         <v>153</v>
@@ -12482,11 +12467,11 @@
       <c r="G345" s="5">
         <v>0.2</v>
       </c>
-      <c r="H345" s="16">
+      <c r="H345" s="15">
         <v>5</v>
       </c>
-      <c r="I345" s="24" t="s">
-        <v>321</v>
+      <c r="I345" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J345" s="7">
         <v>400</v>
@@ -12497,10 +12482,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D346" s="4">
         <v>252</v>
@@ -12514,11 +12499,11 @@
       <c r="G346" s="5">
         <v>0.2</v>
       </c>
-      <c r="H346" s="16">
+      <c r="H346" s="15">
         <v>5</v>
       </c>
-      <c r="I346" s="24" t="s">
-        <v>321</v>
+      <c r="I346" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J346" s="7">
         <v>400</v>
@@ -12529,10 +12514,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D347" s="4">
         <v>190</v>
@@ -12546,11 +12531,11 @@
       <c r="G347" s="5">
         <v>9</v>
       </c>
-      <c r="H347" s="15">
+      <c r="H347" s="14">
         <v>5.2</v>
       </c>
-      <c r="I347" s="22" t="s">
-        <v>321</v>
+      <c r="I347" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J347" s="2">
         <v>170</v>
@@ -12561,10 +12546,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D348" s="4">
         <v>96</v>
@@ -12578,11 +12563,11 @@
       <c r="G348" s="5">
         <v>1.2</v>
       </c>
-      <c r="H348" s="15">
+      <c r="H348" s="14">
         <v>5.5</v>
       </c>
-      <c r="I348" s="22" t="s">
-        <v>321</v>
+      <c r="I348" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J348" s="2">
         <v>170</v>
@@ -12593,16 +12578,16 @@
         <v>348</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D349" s="4">
         <v>326</v>
       </c>
-      <c r="E349" s="5" t="s">
-        <v>213</v>
+      <c r="E349" s="5">
+        <v>0</v>
       </c>
       <c r="F349" s="5">
         <v>17.899999999999999</v>
@@ -12610,11 +12595,11 @@
       <c r="G349" s="5">
         <v>28.6</v>
       </c>
-      <c r="H349" s="15">
+      <c r="H349" s="14">
         <v>40</v>
       </c>
-      <c r="I349" s="22" t="s">
-        <v>320</v>
+      <c r="I349" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J349" s="2"/>
     </row>
@@ -12623,10 +12608,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D350" s="4">
         <v>69</v>
@@ -12640,11 +12625,11 @@
       <c r="G350" s="5">
         <v>0.2</v>
       </c>
-      <c r="H350" s="15">
+      <c r="H350" s="14">
         <v>9</v>
       </c>
-      <c r="I350" s="22" t="s">
-        <v>320</v>
+      <c r="I350" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J350" s="2"/>
     </row>
@@ -12653,10 +12638,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D351" s="4">
         <v>606</v>
@@ -12670,11 +12655,11 @@
       <c r="G351" s="5">
         <v>63.2</v>
       </c>
-      <c r="H351" s="15">
+      <c r="H351" s="14">
         <v>5</v>
       </c>
-      <c r="I351" s="22" t="s">
-        <v>321</v>
+      <c r="I351" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J351" s="2">
         <v>350</v>
@@ -12685,10 +12670,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D352" s="4">
         <v>47</v>
@@ -12702,11 +12687,11 @@
       <c r="G352" s="5">
         <v>0.4</v>
       </c>
-      <c r="H352" s="15">
+      <c r="H352" s="14">
         <v>7.8</v>
       </c>
-      <c r="I352" s="22" t="s">
-        <v>320</v>
+      <c r="I352" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J352" s="2"/>
     </row>
@@ -12715,10 +12700,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D353" s="4">
         <v>154</v>
@@ -12732,11 +12717,11 @@
       <c r="G353" s="5">
         <v>0.2</v>
       </c>
-      <c r="H353" s="16">
+      <c r="H353" s="15">
         <v>4.5</v>
       </c>
-      <c r="I353" s="24" t="s">
-        <v>321</v>
+      <c r="I353" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J353" s="7">
         <v>400</v>
@@ -12747,10 +12732,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D354" s="4">
         <v>252</v>
@@ -12764,11 +12749,11 @@
       <c r="G354" s="5">
         <v>0.2</v>
       </c>
-      <c r="H354" s="16">
+      <c r="H354" s="15">
         <v>4.3</v>
       </c>
-      <c r="I354" s="24" t="s">
-        <v>321</v>
+      <c r="I354" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J354" s="7">
         <v>400</v>
@@ -12779,10 +12764,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D355" s="4">
         <v>25</v>
@@ -12796,11 +12781,11 @@
       <c r="G355" s="5">
         <v>0.3</v>
       </c>
-      <c r="H355" s="15">
+      <c r="H355" s="14">
         <v>3.5</v>
       </c>
-      <c r="I355" s="22" t="s">
-        <v>321</v>
+      <c r="I355" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="J355" s="2">
         <v>400</v>
@@ -12811,16 +12796,16 @@
         <v>355</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D356" s="4">
         <v>113</v>
       </c>
-      <c r="E356" s="5" t="s">
-        <v>213</v>
+      <c r="E356" s="5">
+        <v>0</v>
       </c>
       <c r="F356" s="5">
         <v>20.100000000000001</v>
@@ -12828,11 +12813,11 @@
       <c r="G356" s="5">
         <v>3.5</v>
       </c>
-      <c r="H356" s="15">
+      <c r="H356" s="14">
         <v>42</v>
       </c>
-      <c r="I356" s="22" t="s">
-        <v>320</v>
+      <c r="I356" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J356" s="2"/>
     </row>
@@ -12841,16 +12826,16 @@
         <v>356</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D357" s="4">
         <v>152</v>
       </c>
-      <c r="E357" s="5" t="s">
-        <v>213</v>
+      <c r="E357" s="5">
+        <v>0</v>
       </c>
       <c r="F357" s="5">
         <v>21.5</v>
@@ -12858,11 +12843,11 @@
       <c r="G357" s="5">
         <v>7.3</v>
       </c>
-      <c r="H357" s="15">
+      <c r="H357" s="14">
         <v>40</v>
       </c>
-      <c r="I357" s="22" t="s">
-        <v>320</v>
+      <c r="I357" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J357" s="2"/>
     </row>
@@ -12871,16 +12856,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D358" s="4">
         <v>157</v>
       </c>
-      <c r="E358" s="5" t="s">
-        <v>213</v>
+      <c r="E358" s="5">
+        <v>0</v>
       </c>
       <c r="F358" s="5">
         <v>16.7</v>
@@ -12888,11 +12873,11 @@
       <c r="G358" s="5">
         <v>10.1</v>
       </c>
-      <c r="H358" s="15">
+      <c r="H358" s="14">
         <v>40</v>
       </c>
-      <c r="I358" s="22" t="s">
-        <v>320</v>
+      <c r="I358" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J358" s="2"/>
     </row>
@@ -12901,16 +12886,16 @@
         <v>358</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D359" s="4">
         <v>217</v>
       </c>
-      <c r="E359" s="5" t="s">
-        <v>213</v>
+      <c r="E359" s="5">
+        <v>0</v>
       </c>
       <c r="F359" s="5">
         <v>19.3</v>
@@ -12918,11 +12903,11 @@
       <c r="G359" s="5">
         <v>15.7</v>
       </c>
-      <c r="H359" s="15">
+      <c r="H359" s="14">
         <v>41</v>
       </c>
-      <c r="I359" s="22" t="s">
-        <v>320</v>
+      <c r="I359" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J359" s="2"/>
     </row>
@@ -12931,10 +12916,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D360" s="4">
         <v>69</v>
@@ -12948,11 +12933,11 @@
       <c r="G360" s="5">
         <v>0.1</v>
       </c>
-      <c r="H360" s="15">
+      <c r="H360" s="14">
         <v>4</v>
       </c>
-      <c r="I360" s="22" t="s">
-        <v>320</v>
+      <c r="I360" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="J360" s="2"/>
     </row>
